--- a/WebAlap/webfejlesztes_iranyelvek_v2024252_v2.xlsx
+++ b/WebAlap/webfejlesztes_iranyelvek_v2024252_v2.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kurzusok\webfejlesztes\_követelmények2025\Véglegesítés\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PatrikITWorkSpace\Elte_24_25_2\WebAlap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FF5C72B-6023-408C-A80B-9AF5F54535CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{986064A7-6229-4570-87B5-E1312D6EE22A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{1BD8638E-000E-4472-8AE1-C32ECD41C6A4}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="3" xr2:uid="{1BD8638E-000E-4472-8AE1-C32ECD41C6A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Fedőlap" sheetId="2" r:id="rId1"/>
     <sheet name="Irányelvek" sheetId="8" r:id="rId2"/>
-    <sheet name="Statisztika (hallgatói)" sheetId="10" r:id="rId3"/>
-    <sheet name="Statisztika (tutori)" sheetId="6" r:id="rId4"/>
-    <sheet name="Ponthatárok" sheetId="9" state="hidden" r:id="rId5"/>
+    <sheet name="Munka1" sheetId="11" r:id="rId3"/>
+    <sheet name="Statisztika (hallgatói)" sheetId="10" r:id="rId4"/>
+    <sheet name="Statisztika (tutori)" sheetId="6" r:id="rId5"/>
+    <sheet name="Ponthatárok" sheetId="9" state="hidden" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Irányelvek!$A$1:$L$48</definedName>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="107">
   <si>
     <t>Neved:</t>
   </si>
@@ -1496,40 +1497,7 @@
     <xf numFmtId="0" fontId="15" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -1537,6 +1505,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1553,6 +1524,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1584,11 +1558,38 @@
     <xf numFmtId="0" fontId="11" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Ezres" xfId="1" builtinId="3"/>
@@ -1596,7 +1597,33 @@
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
     <cellStyle name="Százalék" xfId="3" builtinId="5"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="9">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFBDBD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF9F"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1780,19 +1807,19 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.6470588235294118</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.77777777777777779</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.5714285714285714</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2103,19 +2130,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2210,19 +2237,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3587,122 +3614,122 @@
   <sheetPr codeName="Munka1"/>
   <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B5" sqref="B5:H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" customWidth="1"/>
-    <col min="3" max="3" width="39.85546875" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" customWidth="1"/>
-    <col min="5" max="5" width="4.140625" customWidth="1"/>
-    <col min="6" max="6" width="40.7109375" customWidth="1"/>
-    <col min="8" max="8" width="6.140625" customWidth="1"/>
-    <col min="9" max="9" width="4.5703125" customWidth="1"/>
+    <col min="1" max="1" width="4.26953125" customWidth="1"/>
+    <col min="2" max="2" width="26.81640625" customWidth="1"/>
+    <col min="3" max="3" width="39.81640625" customWidth="1"/>
+    <col min="4" max="4" width="14.81640625" customWidth="1"/>
+    <col min="5" max="5" width="4.1796875" customWidth="1"/>
+    <col min="6" max="6" width="40.7265625" customWidth="1"/>
+    <col min="8" max="8" width="6.1796875" customWidth="1"/>
+    <col min="9" max="9" width="4.54296875" customWidth="1"/>
     <col min="10" max="10" width="19" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" customWidth="1"/>
-    <col min="12" max="12" width="15.28515625" customWidth="1"/>
-    <col min="13" max="17" width="9.140625" customWidth="1"/>
+    <col min="11" max="11" width="9.1796875" customWidth="1"/>
+    <col min="12" max="12" width="15.26953125" customWidth="1"/>
+    <col min="13" max="17" width="9.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="66"/>
-      <c r="B1" s="96" t="s">
+      <c r="B1" s="117" t="s">
         <v>106</v>
       </c>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
+      <c r="H1" s="117"/>
       <c r="I1" s="66"/>
       <c r="J1" s="68" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="65"/>
-      <c r="B2" s="127" t="s">
+      <c r="B2" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="100"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="120"/>
+      <c r="F2" s="120"/>
+      <c r="G2" s="120"/>
+      <c r="H2" s="120"/>
       <c r="I2" s="65"/>
     </row>
-    <row r="3" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="65"/>
-      <c r="B3" s="127" t="s">
+      <c r="B3" s="96" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="100"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="101"/>
+      <c r="C3" s="119"/>
+      <c r="D3" s="120"/>
+      <c r="E3" s="120"/>
+      <c r="F3" s="120"/>
+      <c r="G3" s="120"/>
+      <c r="H3" s="120"/>
       <c r="I3" s="65"/>
     </row>
-    <row r="4" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="65"/>
-      <c r="B4" s="127" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="100"/>
-      <c r="D4" s="101"/>
-      <c r="E4" s="101"/>
-      <c r="F4" s="101"/>
-      <c r="G4" s="101"/>
-      <c r="H4" s="101"/>
+      <c r="B4" s="96" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="119"/>
+      <c r="D4" s="120"/>
+      <c r="E4" s="120"/>
+      <c r="F4" s="120"/>
+      <c r="G4" s="120"/>
+      <c r="H4" s="120"/>
       <c r="I4" s="65"/>
     </row>
-    <row r="5" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="65"/>
-      <c r="B5" s="104" t="s">
+      <c r="B5" s="123" t="s">
         <v>88</v>
       </c>
-      <c r="C5" s="104"/>
-      <c r="D5" s="104"/>
-      <c r="E5" s="104"/>
-      <c r="F5" s="104"/>
-      <c r="G5" s="104"/>
-      <c r="H5" s="104"/>
+      <c r="C5" s="123"/>
+      <c r="D5" s="123"/>
+      <c r="E5" s="123"/>
+      <c r="F5" s="123"/>
+      <c r="G5" s="123"/>
+      <c r="H5" s="123"/>
       <c r="I5" s="65"/>
     </row>
-    <row r="6" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="65"/>
-      <c r="B6" s="109" t="s">
+      <c r="B6" s="100" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="110"/>
-      <c r="D6" s="110"/>
-      <c r="E6" s="110"/>
-      <c r="F6" s="110"/>
-      <c r="G6" s="110"/>
-      <c r="H6" s="110"/>
+      <c r="C6" s="101"/>
+      <c r="D6" s="101"/>
+      <c r="E6" s="101"/>
+      <c r="F6" s="101"/>
+      <c r="G6" s="101"/>
+      <c r="H6" s="101"/>
       <c r="I6" s="65"/>
     </row>
-    <row r="7" spans="1:10" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="61.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="65"/>
-      <c r="B7" s="111" t="str">
+      <c r="B7" s="102" t="str">
         <f>CONCATENATE("Az irányelvek között vannak kiemelt (sárga háttérszínnel és félkövér kiemeléssel jelölt) elvek , amelyek betartására kiemelten figyelni kell! Az elégséges szinthez legalább ",D12," pontot el kell érni. A hallgatói és tutori értékelés tekintetében, maximum 15 darab irányelvben lehet eltérés, ennél több esetén már nem tudjuk elfogadni a feladatot.")</f>
         <v>Az irányelvek között vannak kiemelt (sárga háttérszínnel és félkövér kiemeléssel jelölt) elvek , amelyek betartására kiemelten figyelni kell! Az elégséges szinthez legalább 50 pontot el kell érni. A hallgatói és tutori értékelés tekintetében, maximum 15 darab irányelvben lehet eltérés, ennél több esetén már nem tudjuk elfogadni a feladatot.</v>
       </c>
-      <c r="C7" s="112"/>
-      <c r="D7" s="112"/>
-      <c r="E7" s="112"/>
-      <c r="F7" s="112"/>
-      <c r="G7" s="112"/>
-      <c r="H7" s="112"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="103"/>
+      <c r="H7" s="103"/>
       <c r="I7" s="65"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="65"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -3713,7 +3740,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="65"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="65"/>
       <c r="B9" s="24" t="s">
         <v>52</v>
@@ -3726,56 +3753,56 @@
       <c r="H9" s="1"/>
       <c r="I9" s="65"/>
     </row>
-    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="65"/>
-      <c r="B10" s="98" t="s">
+      <c r="B10" s="99" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="98"/>
+      <c r="C10" s="99"/>
       <c r="D10" s="42">
         <f>COUNTA(Irányelvek!B:B)-1</f>
         <v>47</v>
       </c>
       <c r="E10" s="1"/>
-      <c r="F10" s="102" t="s">
+      <c r="F10" s="121" t="s">
         <v>95</v>
       </c>
-      <c r="G10" s="102"/>
-      <c r="H10" s="102"/>
+      <c r="G10" s="121"/>
+      <c r="H10" s="121"/>
       <c r="I10" s="65"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="65"/>
-      <c r="B11" s="98" t="s">
+      <c r="B11" s="99" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="98"/>
+      <c r="C11" s="99"/>
       <c r="D11" s="42">
         <f>SUM(Irányelvek!I:I)</f>
         <v>100</v>
       </c>
       <c r="E11" s="1"/>
-      <c r="F11" s="103"/>
-      <c r="G11" s="103"/>
-      <c r="H11" s="103"/>
+      <c r="F11" s="122"/>
+      <c r="G11" s="122"/>
+      <c r="H11" s="122"/>
       <c r="I11" s="65"/>
     </row>
-    <row r="12" spans="1:10" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="65"/>
-      <c r="B12" s="98" t="s">
+      <c r="B12" s="99" t="s">
         <v>70</v>
       </c>
-      <c r="C12" s="98"/>
+      <c r="C12" s="99"/>
       <c r="D12" s="42">
         <v>50</v>
       </c>
       <c r="E12" s="1"/>
-      <c r="F12" s="103"/>
-      <c r="G12" s="103"/>
-      <c r="H12" s="103"/>
+      <c r="F12" s="122"/>
+      <c r="G12" s="122"/>
+      <c r="H12" s="122"/>
       <c r="I12" s="65"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="65"/>
       <c r="B13" s="24" t="s">
         <v>50</v>
@@ -3788,12 +3815,12 @@
       <c r="H13" s="1"/>
       <c r="I13" s="65"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="65"/>
-      <c r="B14" s="98" t="s">
+      <c r="B14" s="99" t="s">
         <v>57</v>
       </c>
-      <c r="C14" s="98"/>
+      <c r="C14" s="99"/>
       <c r="D14" s="42" t="b">
         <f>IF(COUNTIFS(Irányelvek!D2:D48,"=1",Irányelvek!H2:H48,"=igaz")=19,TRUE,FALSE)</f>
         <v>0</v>
@@ -3804,26 +3831,26 @@
       <c r="H14" s="1"/>
       <c r="I14" s="65"/>
     </row>
-    <row r="15" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="65"/>
-      <c r="B15" s="98" t="s">
+      <c r="B15" s="99" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="98"/>
+      <c r="C15" s="99"/>
       <c r="D15" s="43">
         <f>SUM(Irányelvek!J2:J48)</f>
-        <v>-95</v>
+        <v>28</v>
       </c>
       <c r="E15" s="1"/>
-      <c r="F15" s="99" t="str">
+      <c r="F15" s="106" t="str">
         <f>CONCATENATE("Ha a feladatot önállóan értékelnénk, akkor az önértékelésed alapján ",VLOOKUP(D15,Ponthatárok!$C$3:$D$7,2,TRUE), "  érdemjegyet kapnál rá.")</f>
         <v>Ha a feladatot önállóan értékelnénk, akkor az önértékelésed alapján elégtelen  érdemjegyet kapnál rá.</v>
       </c>
-      <c r="G15" s="99"/>
-      <c r="H15" s="99"/>
+      <c r="G15" s="106"/>
+      <c r="H15" s="106"/>
       <c r="I15" s="65"/>
     </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="65"/>
       <c r="B16" s="24" t="s">
         <v>51</v>
@@ -3836,57 +3863,57 @@
       <c r="H16" s="1"/>
       <c r="I16" s="65"/>
     </row>
-    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="65"/>
-      <c r="B17" s="98" t="s">
+      <c r="B17" s="99" t="s">
         <v>58</v>
       </c>
-      <c r="C17" s="98"/>
+      <c r="C17" s="99"/>
       <c r="D17" s="42" t="str">
         <f>IF(D26=TRUE,IF(COUNTIFS(Irányelvek!F2:F48,"=1",Irányelvek!H2:H48,"=igaz")=19,TRUE,FALSE),"Még nincs adat.")</f>
         <v>Még nincs adat.</v>
       </c>
       <c r="E17" s="1"/>
-      <c r="F17" s="116" t="s">
+      <c r="F17" s="108" t="s">
         <v>44</v>
       </c>
-      <c r="G17" s="117"/>
-      <c r="H17" s="118"/>
+      <c r="G17" s="109"/>
+      <c r="H17" s="110"/>
       <c r="I17" s="65"/>
     </row>
-    <row r="18" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="65"/>
-      <c r="B18" s="98" t="s">
+      <c r="B18" s="99" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="98"/>
+      <c r="C18" s="99"/>
       <c r="D18" s="43" t="str">
         <f>IF(D26=TRUE,SUM(Irányelvek!K2:K48),"Még nincs adat.")</f>
         <v>Még nincs adat.</v>
       </c>
       <c r="E18" s="1"/>
-      <c r="F18" s="119"/>
-      <c r="G18" s="120"/>
-      <c r="H18" s="121"/>
+      <c r="F18" s="111"/>
+      <c r="G18" s="112"/>
+      <c r="H18" s="113"/>
       <c r="I18" s="65"/>
     </row>
-    <row r="19" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="65"/>
-      <c r="B19" s="98" t="s">
+      <c r="B19" s="99" t="s">
         <v>56</v>
       </c>
-      <c r="C19" s="98"/>
+      <c r="C19" s="99"/>
       <c r="D19" s="43" t="str">
         <f>IF(D26=TRUE,D18+D27,"Még nincs adat.")</f>
         <v>Még nincs adat.</v>
       </c>
       <c r="E19" s="1"/>
-      <c r="F19" s="122"/>
-      <c r="G19" s="123"/>
-      <c r="H19" s="124"/>
+      <c r="F19" s="114"/>
+      <c r="G19" s="115"/>
+      <c r="H19" s="116"/>
       <c r="I19" s="65"/>
     </row>
-    <row r="20" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="65"/>
       <c r="B20" s="24" t="s">
         <v>49</v>
@@ -3899,71 +3926,71 @@
       <c r="H20" s="1"/>
       <c r="I20" s="65"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="65"/>
-      <c r="B21" s="98" t="s">
+      <c r="B21" s="99" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="98"/>
+      <c r="C21" s="99"/>
       <c r="D21" s="44">
         <v>20</v>
       </c>
       <c r="E21" s="1"/>
-      <c r="F21" s="99" t="s">
+      <c r="F21" s="106" t="s">
         <v>44</v>
       </c>
-      <c r="G21" s="115"/>
-      <c r="H21" s="115"/>
+      <c r="G21" s="107"/>
+      <c r="H21" s="107"/>
       <c r="I21" s="65"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="65"/>
-      <c r="B22" s="98" t="s">
+      <c r="B22" s="99" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="98"/>
+      <c r="C22" s="99"/>
       <c r="D22" s="44">
         <v>10</v>
       </c>
       <c r="E22" s="1"/>
-      <c r="F22" s="115"/>
-      <c r="G22" s="115"/>
-      <c r="H22" s="115"/>
+      <c r="F22" s="107"/>
+      <c r="G22" s="107"/>
+      <c r="H22" s="107"/>
       <c r="I22" s="65"/>
     </row>
-    <row r="23" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="65"/>
-      <c r="B23" s="113" t="s">
+      <c r="B23" s="104" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="114"/>
+      <c r="C23" s="105"/>
       <c r="D23" s="44" t="str">
         <f>IF(D26=TRUE,SUM(Irányelvek!L2:L48),"Még nincs adat.")</f>
         <v>Még nincs adat.</v>
       </c>
       <c r="E23" s="1"/>
-      <c r="F23" s="115"/>
-      <c r="G23" s="115"/>
-      <c r="H23" s="115"/>
+      <c r="F23" s="107"/>
+      <c r="G23" s="107"/>
+      <c r="H23" s="107"/>
       <c r="I23" s="65"/>
     </row>
-    <row r="24" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="65"/>
-      <c r="B24" s="98" t="s">
+      <c r="B24" s="99" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="98"/>
+      <c r="C24" s="99"/>
       <c r="D24" s="43" t="str">
         <f>IF(D26,IF(ROUNDUP(20 - 0.71*D23,0)&gt;0,ROUNDUP(20 - 0.71*D23,0),0),"Még nincs adat.")</f>
         <v>Még nincs adat.</v>
       </c>
       <c r="E24" s="1"/>
-      <c r="F24" s="115"/>
-      <c r="G24" s="115"/>
-      <c r="H24" s="115"/>
+      <c r="F24" s="107"/>
+      <c r="G24" s="107"/>
+      <c r="H24" s="107"/>
       <c r="I24" s="65"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="65"/>
       <c r="B25" s="13"/>
       <c r="C25" s="13"/>
@@ -3974,12 +4001,12 @@
       <c r="H25" s="13"/>
       <c r="I25" s="65"/>
     </row>
-    <row r="26" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="65"/>
-      <c r="B26" s="108" t="s">
+      <c r="B26" s="98" t="s">
         <v>53</v>
       </c>
-      <c r="C26" s="108"/>
+      <c r="C26" s="98"/>
       <c r="D26" s="45" t="b">
         <v>0</v>
       </c>
@@ -3989,12 +4016,12 @@
       <c r="H26" s="46"/>
       <c r="I26" s="65"/>
     </row>
-    <row r="27" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="65"/>
-      <c r="B27" s="105" t="s">
+      <c r="B27" s="124" t="s">
         <v>55</v>
       </c>
-      <c r="C27" s="106"/>
+      <c r="C27" s="125"/>
       <c r="D27" s="45"/>
       <c r="E27" s="46"/>
       <c r="F27" s="46"/>
@@ -4002,12 +4029,12 @@
       <c r="H27" s="46"/>
       <c r="I27" s="65"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="65"/>
-      <c r="B28" s="97" t="s">
+      <c r="B28" s="118" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="97"/>
+      <c r="C28" s="118"/>
       <c r="D28" s="46"/>
       <c r="E28" s="46"/>
       <c r="F28" s="46"/>
@@ -4015,18 +4042,18 @@
       <c r="H28" s="46"/>
       <c r="I28" s="65"/>
     </row>
-    <row r="29" spans="1:9" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="105" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="65"/>
-      <c r="B29" s="107"/>
-      <c r="C29" s="107"/>
-      <c r="D29" s="107"/>
-      <c r="E29" s="107"/>
-      <c r="F29" s="107"/>
-      <c r="G29" s="107"/>
-      <c r="H29" s="107"/>
+      <c r="B29" s="97"/>
+      <c r="C29" s="97"/>
+      <c r="D29" s="97"/>
+      <c r="E29" s="97"/>
+      <c r="F29" s="97"/>
+      <c r="G29" s="97"/>
+      <c r="H29" s="97"/>
       <c r="I29" s="65"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="65"/>
       <c r="B30" s="67"/>
       <c r="C30" s="67"/>
@@ -4040,17 +4067,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="Mz7EfEDe6v8cDUz4TxEHDWHiqsbUlOKtpPmMASCpJrCgqIKcchwB59qyedMGM9nhDxctmLUFNc/7+3pzDxMfOQ==" saltValue="ufiuVYYMa4lem5kpeJ7gNw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="27">
-    <mergeCell ref="B29:H29"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B6:H6"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="F21:H24"/>
-    <mergeCell ref="F17:H19"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="B12:C12"/>
@@ -4067,19 +4083,30 @@
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B29:H29"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B6:H6"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="F21:H24"/>
+    <mergeCell ref="F17:H19"/>
   </mergeCells>
   <conditionalFormatting sqref="D15">
-    <cfRule type="expression" dxfId="5" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="2" stopIfTrue="1">
       <formula>$D$15&gt;=$D$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18:D19">
-    <cfRule type="expression" dxfId="4" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="1" stopIfTrue="1">
       <formula>$D$18&gt;=$D$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24">
-    <cfRule type="expression" dxfId="3" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="3" stopIfTrue="1">
       <formula>$D$24&gt;=$D$22</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4129,26 +4156,26 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2:D48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.140625" style="63" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" style="40" customWidth="1"/>
-    <col min="3" max="3" width="54.140625" style="41" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="51" customWidth="1"/>
-    <col min="5" max="5" width="24.7109375" style="33" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" style="52" customWidth="1"/>
-    <col min="7" max="7" width="22.42578125" style="33" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="57" customWidth="1"/>
-    <col min="9" max="10" width="9.140625" customWidth="1"/>
-    <col min="11" max="12" width="10.85546875" customWidth="1"/>
-    <col min="13" max="13" width="11.7109375" customWidth="1"/>
-    <col min="14" max="14" width="9.7109375" customWidth="1"/>
+    <col min="1" max="1" width="3.1796875" style="63" customWidth="1"/>
+    <col min="2" max="2" width="15.81640625" style="40" customWidth="1"/>
+    <col min="3" max="3" width="54.1796875" style="41" customWidth="1"/>
+    <col min="4" max="4" width="11.453125" style="51" customWidth="1"/>
+    <col min="5" max="5" width="24.7265625" style="33" customWidth="1"/>
+    <col min="6" max="6" width="10.54296875" style="52" customWidth="1"/>
+    <col min="7" max="7" width="22.453125" style="33" customWidth="1"/>
+    <col min="8" max="8" width="9.81640625" style="57" customWidth="1"/>
+    <col min="9" max="10" width="9.1796875" customWidth="1"/>
+    <col min="11" max="12" width="10.81640625" customWidth="1"/>
+    <col min="13" max="13" width="11.7265625" customWidth="1"/>
+    <col min="14" max="14" width="9.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="14" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" s="14" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="62"/>
       <c r="B1" s="61" t="s">
         <v>10</v>
@@ -4185,7 +4212,7 @@
       </c>
       <c r="N1" s="15"/>
     </row>
-    <row r="2" spans="1:14" s="11" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="11" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="34">
         <v>1</v>
       </c>
@@ -4195,7 +4222,10 @@
       <c r="C2" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="D2" s="50"/>
+      <c r="D2" s="50">
+        <f>Munka1!D2</f>
+        <v>1</v>
+      </c>
       <c r="E2" s="30"/>
       <c r="F2" s="50"/>
       <c r="G2" s="47"/>
@@ -4207,7 +4237,7 @@
       </c>
       <c r="J2" s="27">
         <f>IF(D2=1,I2,IF(H2=TRUE,-5,""))</f>
-        <v>-5</v>
+        <v>3</v>
       </c>
       <c r="K2" s="28">
         <f>IF(F2=1,I2,IF(H2=TRUE,-5,""))</f>
@@ -4215,10 +4245,10 @@
       </c>
       <c r="L2" s="27">
         <f>IF(J2=K2,0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" s="11" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" s="11" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="34">
         <f>A2+1</f>
         <v>2</v>
@@ -4229,7 +4259,10 @@
       <c r="C3" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="D3" s="50"/>
+      <c r="D3" s="50">
+        <f>Munka1!D3</f>
+        <v>1</v>
+      </c>
       <c r="E3" s="31"/>
       <c r="F3" s="50"/>
       <c r="G3" s="48"/>
@@ -4241,7 +4274,7 @@
       </c>
       <c r="J3" s="27">
         <f t="shared" ref="J3:J48" si="0">IF(D3=1,I3,IF(H3=TRUE,-5,""))</f>
-        <v>-5</v>
+        <v>2</v>
       </c>
       <c r="K3" s="28">
         <f t="shared" ref="K3:K48" si="1">IF(F3=1,I3,IF(H3=TRUE,-5,""))</f>
@@ -4249,10 +4282,10 @@
       </c>
       <c r="L3" s="12">
         <f t="shared" ref="L3:L48" si="2">IF(J3=K3,0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" s="11" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" s="11" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="34">
         <f t="shared" ref="A4:A48" si="3">A3+1</f>
         <v>3</v>
@@ -4263,7 +4296,10 @@
       <c r="C4" s="37" t="s">
         <v>90</v>
       </c>
-      <c r="D4" s="50"/>
+      <c r="D4" s="50">
+        <f>Munka1!D4</f>
+        <v>0</v>
+      </c>
       <c r="E4" s="31"/>
       <c r="F4" s="50"/>
       <c r="G4" s="48"/>
@@ -4287,7 +4323,7 @@
       </c>
       <c r="N4" s="17"/>
     </row>
-    <row r="5" spans="1:14" s="11" customFormat="1" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" s="11" customFormat="1" ht="93.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="34">
         <f t="shared" si="3"/>
         <v>4</v>
@@ -4298,7 +4334,10 @@
       <c r="C5" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="D5" s="50"/>
+      <c r="D5" s="50">
+        <f>Munka1!D5</f>
+        <v>1</v>
+      </c>
       <c r="E5" s="31"/>
       <c r="F5" s="50"/>
       <c r="G5" s="48"/>
@@ -4310,7 +4349,7 @@
       </c>
       <c r="J5" s="27">
         <f t="shared" si="0"/>
-        <v>-5</v>
+        <v>3</v>
       </c>
       <c r="K5" s="28">
         <f t="shared" si="1"/>
@@ -4318,11 +4357,11 @@
       </c>
       <c r="L5" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5" s="18"/>
     </row>
-    <row r="6" spans="1:14" s="11" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" s="11" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A6" s="34">
         <f t="shared" si="3"/>
         <v>5</v>
@@ -4333,7 +4372,10 @@
       <c r="C6" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="D6" s="50"/>
+      <c r="D6" s="50">
+        <f>Munka1!D6</f>
+        <v>0</v>
+      </c>
       <c r="E6" s="31" t="s">
         <v>18</v>
       </c>
@@ -4359,7 +4401,7 @@
       </c>
       <c r="N6" s="18"/>
     </row>
-    <row r="7" spans="1:14" s="11" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" s="11" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="34">
         <f t="shared" si="3"/>
         <v>6</v>
@@ -4370,7 +4412,10 @@
       <c r="C7" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="D7" s="50"/>
+      <c r="D7" s="50">
+        <f>Munka1!D7</f>
+        <v>0</v>
+      </c>
       <c r="E7" s="31" t="s">
         <v>17</v>
       </c>
@@ -4395,7 +4440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" s="11" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" s="11" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="34">
         <f t="shared" si="3"/>
         <v>7</v>
@@ -4406,7 +4451,10 @@
       <c r="C8" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="D8" s="50"/>
+      <c r="D8" s="50">
+        <f>Munka1!D8</f>
+        <v>1</v>
+      </c>
       <c r="E8" s="31"/>
       <c r="F8" s="50"/>
       <c r="G8" s="48"/>
@@ -4418,7 +4466,7 @@
       </c>
       <c r="J8" s="27">
         <f t="shared" si="0"/>
-        <v>-5</v>
+        <v>2</v>
       </c>
       <c r="K8" s="28">
         <f t="shared" si="1"/>
@@ -4426,10 +4474,10 @@
       </c>
       <c r="L8" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" s="82" customFormat="1" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" s="82" customFormat="1" ht="102" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="72">
         <f t="shared" si="3"/>
         <v>8</v>
@@ -4440,7 +4488,10 @@
       <c r="C9" s="74" t="s">
         <v>68</v>
       </c>
-      <c r="D9" s="75"/>
+      <c r="D9" s="75">
+        <f>Munka1!D9</f>
+        <v>0</v>
+      </c>
       <c r="E9" s="76"/>
       <c r="F9" s="75"/>
       <c r="G9" s="77"/>
@@ -4463,7 +4514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="139.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="139.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A10" s="71">
         <f t="shared" si="3"/>
         <v>9</v>
@@ -4474,7 +4525,10 @@
       <c r="C10" s="58" t="s">
         <v>79</v>
       </c>
-      <c r="D10" s="50"/>
+      <c r="D10" s="50">
+        <f>Munka1!D10</f>
+        <v>0</v>
+      </c>
       <c r="E10" s="30"/>
       <c r="F10" s="50"/>
       <c r="G10" s="47"/>
@@ -4497,7 +4551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="63" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="34">
         <f t="shared" si="3"/>
         <v>10</v>
@@ -4508,7 +4562,10 @@
       <c r="C11" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="D11" s="50"/>
+      <c r="D11" s="50">
+        <f>Munka1!D11</f>
+        <v>1</v>
+      </c>
       <c r="E11" s="31"/>
       <c r="F11" s="50"/>
       <c r="G11" s="48"/>
@@ -4520,7 +4577,7 @@
       </c>
       <c r="J11" s="27">
         <f t="shared" si="0"/>
-        <v>-5</v>
+        <v>3</v>
       </c>
       <c r="K11" s="28">
         <f t="shared" si="1"/>
@@ -4528,10 +4585,10 @@
       </c>
       <c r="L11" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A12" s="34">
         <f t="shared" si="3"/>
         <v>11</v>
@@ -4542,7 +4599,10 @@
       <c r="C12" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="D12" s="50"/>
+      <c r="D12" s="50">
+        <f>Munka1!D12</f>
+        <v>1</v>
+      </c>
       <c r="E12" s="31"/>
       <c r="F12" s="50"/>
       <c r="G12" s="48"/>
@@ -4550,9 +4610,9 @@
       <c r="I12" s="12">
         <v>1</v>
       </c>
-      <c r="J12" s="27" t="str">
+      <c r="J12" s="27">
         <f t="shared" si="0"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="K12" s="28" t="str">
         <f t="shared" si="1"/>
@@ -4560,10 +4620,10 @@
       </c>
       <c r="L12" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="34">
         <f t="shared" si="3"/>
         <v>12</v>
@@ -4574,7 +4634,10 @@
       <c r="C13" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="50"/>
+      <c r="D13" s="50">
+        <f>Munka1!D13</f>
+        <v>1</v>
+      </c>
       <c r="E13" s="31"/>
       <c r="F13" s="50"/>
       <c r="G13" s="48"/>
@@ -4582,9 +4645,9 @@
       <c r="I13" s="12">
         <v>1</v>
       </c>
-      <c r="J13" s="27" t="str">
+      <c r="J13" s="27">
         <f t="shared" si="0"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="K13" s="28" t="str">
         <f t="shared" si="1"/>
@@ -4592,10 +4655,10 @@
       </c>
       <c r="L13" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="68.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="34">
         <f t="shared" si="3"/>
         <v>13</v>
@@ -4606,7 +4669,10 @@
       <c r="C14" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="D14" s="50"/>
+      <c r="D14" s="50">
+        <f>Munka1!D14</f>
+        <v>0</v>
+      </c>
       <c r="E14" s="31"/>
       <c r="F14" s="50"/>
       <c r="G14" s="48"/>
@@ -4627,7 +4693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="34">
         <f t="shared" si="3"/>
         <v>14</v>
@@ -4638,7 +4704,10 @@
       <c r="C15" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="D15" s="50"/>
+      <c r="D15" s="50">
+        <f>Munka1!D15</f>
+        <v>1</v>
+      </c>
       <c r="E15" s="31"/>
       <c r="F15" s="50"/>
       <c r="G15" s="48"/>
@@ -4646,9 +4715,9 @@
       <c r="I15" s="12">
         <v>1</v>
       </c>
-      <c r="J15" s="27" t="str">
+      <c r="J15" s="27">
         <f t="shared" si="0"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="K15" s="28" t="str">
         <f t="shared" si="1"/>
@@ -4656,10 +4725,10 @@
       </c>
       <c r="L15" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="34">
         <f t="shared" si="3"/>
         <v>15</v>
@@ -4670,7 +4739,10 @@
       <c r="C16" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="D16" s="50"/>
+      <c r="D16" s="50">
+        <f>Munka1!D16</f>
+        <v>1</v>
+      </c>
       <c r="E16" s="31"/>
       <c r="F16" s="50"/>
       <c r="G16" s="48"/>
@@ -4678,9 +4750,9 @@
       <c r="I16" s="12">
         <v>1</v>
       </c>
-      <c r="J16" s="27" t="str">
+      <c r="J16" s="27">
         <f t="shared" si="0"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="K16" s="28" t="str">
         <f t="shared" si="1"/>
@@ -4688,10 +4760,10 @@
       </c>
       <c r="L16" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="62.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="34">
         <f t="shared" si="3"/>
         <v>16</v>
@@ -4702,7 +4774,10 @@
       <c r="C17" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="D17" s="50"/>
+      <c r="D17" s="50">
+        <f>Munka1!D17</f>
+        <v>0</v>
+      </c>
       <c r="E17" s="31"/>
       <c r="F17" s="50"/>
       <c r="G17" s="48"/>
@@ -4723,7 +4798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="34">
         <f t="shared" si="3"/>
         <v>17</v>
@@ -4734,7 +4809,10 @@
       <c r="C18" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="50"/>
+      <c r="D18" s="50">
+        <f>Munka1!D18</f>
+        <v>1</v>
+      </c>
       <c r="E18" s="31"/>
       <c r="F18" s="50"/>
       <c r="G18" s="48"/>
@@ -4742,9 +4820,9 @@
       <c r="I18" s="12">
         <v>1</v>
       </c>
-      <c r="J18" s="27" t="str">
+      <c r="J18" s="27">
         <f t="shared" si="0"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="K18" s="28" t="str">
         <f t="shared" si="1"/>
@@ -4752,10 +4830,10 @@
       </c>
       <c r="L18" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A19" s="34">
         <f t="shared" si="3"/>
         <v>18</v>
@@ -4766,7 +4844,10 @@
       <c r="C19" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="D19" s="50"/>
+      <c r="D19" s="50">
+        <f>Munka1!D19</f>
+        <v>0</v>
+      </c>
       <c r="E19" s="31"/>
       <c r="F19" s="50"/>
       <c r="G19" s="48"/>
@@ -4787,7 +4868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="141" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="141" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="34">
         <f t="shared" si="3"/>
         <v>19</v>
@@ -4798,7 +4879,10 @@
       <c r="C20" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="D20" s="50"/>
+      <c r="D20" s="50">
+        <f>Munka1!D20</f>
+        <v>0</v>
+      </c>
       <c r="E20" s="31"/>
       <c r="F20" s="50"/>
       <c r="G20" s="48"/>
@@ -4819,7 +4903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A21" s="34">
         <f t="shared" si="3"/>
         <v>20</v>
@@ -4830,7 +4914,10 @@
       <c r="C21" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="D21" s="50"/>
+      <c r="D21" s="50">
+        <f>Munka1!D21</f>
+        <v>1</v>
+      </c>
       <c r="E21" s="31"/>
       <c r="F21" s="50"/>
       <c r="G21" s="48"/>
@@ -4838,9 +4925,9 @@
       <c r="I21" s="12">
         <v>3</v>
       </c>
-      <c r="J21" s="27" t="str">
+      <c r="J21" s="27">
         <f t="shared" si="0"/>
-        <v/>
+        <v>3</v>
       </c>
       <c r="K21" s="28" t="str">
         <f t="shared" si="1"/>
@@ -4848,10 +4935,10 @@
       </c>
       <c r="L21" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A22" s="34">
         <f t="shared" si="3"/>
         <v>21</v>
@@ -4862,7 +4949,10 @@
       <c r="C22" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="D22" s="50"/>
+      <c r="D22" s="50">
+        <f>Munka1!D22</f>
+        <v>0</v>
+      </c>
       <c r="E22" s="31"/>
       <c r="F22" s="50"/>
       <c r="G22" s="48"/>
@@ -4883,7 +4973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A23" s="34">
         <f t="shared" si="3"/>
         <v>22</v>
@@ -4894,7 +4984,10 @@
       <c r="C23" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="D23" s="50"/>
+      <c r="D23" s="50">
+        <f>Munka1!D23</f>
+        <v>1</v>
+      </c>
       <c r="E23" s="31"/>
       <c r="F23" s="50"/>
       <c r="G23" s="48"/>
@@ -4902,9 +4995,9 @@
       <c r="I23" s="12">
         <v>1</v>
       </c>
-      <c r="J23" s="27" t="str">
+      <c r="J23" s="27">
         <f t="shared" si="0"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="K23" s="28" t="str">
         <f t="shared" si="1"/>
@@ -4912,10 +5005,10 @@
       </c>
       <c r="L23" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A24" s="34">
         <f t="shared" si="3"/>
         <v>23</v>
@@ -4926,7 +5019,10 @@
       <c r="C24" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="D24" s="50"/>
+      <c r="D24" s="50">
+        <f>Munka1!D24</f>
+        <v>1</v>
+      </c>
       <c r="E24" s="31"/>
       <c r="F24" s="50"/>
       <c r="G24" s="48"/>
@@ -4934,9 +5030,9 @@
       <c r="I24" s="12">
         <v>1</v>
       </c>
-      <c r="J24" s="27" t="str">
+      <c r="J24" s="27">
         <f t="shared" si="0"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="K24" s="28" t="str">
         <f t="shared" si="1"/>
@@ -4944,10 +5040,10 @@
       </c>
       <c r="L24" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="34">
         <f t="shared" si="3"/>
         <v>24</v>
@@ -4958,7 +5054,10 @@
       <c r="C25" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="D25" s="50"/>
+      <c r="D25" s="50">
+        <f>Munka1!D25</f>
+        <v>1</v>
+      </c>
       <c r="E25" s="31"/>
       <c r="F25" s="50"/>
       <c r="G25" s="48"/>
@@ -4966,9 +5065,9 @@
       <c r="I25" s="12">
         <v>1</v>
       </c>
-      <c r="J25" s="27" t="str">
+      <c r="J25" s="27">
         <f t="shared" si="0"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="K25" s="28" t="str">
         <f t="shared" si="1"/>
@@ -4976,10 +5075,10 @@
       </c>
       <c r="L25" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" s="83" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" s="83" customFormat="1" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="72">
         <f t="shared" si="3"/>
         <v>25</v>
@@ -4990,7 +5089,10 @@
       <c r="C26" s="74" t="s">
         <v>31</v>
       </c>
-      <c r="D26" s="75"/>
+      <c r="D26" s="75">
+        <f>Munka1!D26</f>
+        <v>1</v>
+      </c>
       <c r="E26" s="76"/>
       <c r="F26" s="75"/>
       <c r="G26" s="77"/>
@@ -4998,9 +5100,9 @@
       <c r="I26" s="79">
         <v>1</v>
       </c>
-      <c r="J26" s="80" t="str">
+      <c r="J26" s="80">
         <f t="shared" si="0"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="K26" s="81" t="str">
         <f t="shared" si="1"/>
@@ -5008,10 +5110,10 @@
       </c>
       <c r="L26" s="79">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="45.75" thickTop="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="44" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A27" s="71">
         <f t="shared" si="3"/>
         <v>26</v>
@@ -5022,7 +5124,10 @@
       <c r="C27" s="58" t="s">
         <v>62</v>
       </c>
-      <c r="D27" s="50"/>
+      <c r="D27" s="50">
+        <f>Munka1!D27</f>
+        <v>1</v>
+      </c>
       <c r="E27" s="30"/>
       <c r="F27" s="50"/>
       <c r="G27" s="47"/>
@@ -5030,9 +5135,9 @@
       <c r="I27" s="27">
         <v>2</v>
       </c>
-      <c r="J27" s="27" t="str">
+      <c r="J27" s="27">
         <f t="shared" si="0"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="K27" s="28" t="str">
         <f t="shared" si="1"/>
@@ -5040,10 +5145,10 @@
       </c>
       <c r="L27" s="27">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="94.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="34">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -5054,7 +5159,10 @@
       <c r="C28" s="59" t="s">
         <v>103</v>
       </c>
-      <c r="D28" s="50"/>
+      <c r="D28" s="50">
+        <f>Munka1!D28</f>
+        <v>1</v>
+      </c>
       <c r="E28" s="31"/>
       <c r="F28" s="50"/>
       <c r="G28" s="48"/>
@@ -5062,9 +5170,9 @@
       <c r="I28" s="12">
         <v>2</v>
       </c>
-      <c r="J28" s="27" t="str">
+      <c r="J28" s="27">
         <f t="shared" si="0"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="K28" s="28" t="str">
         <f t="shared" si="1"/>
@@ -5072,10 +5180,10 @@
       </c>
       <c r="L28" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="129" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="129" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="34">
         <f t="shared" si="3"/>
         <v>28</v>
@@ -5086,7 +5194,10 @@
       <c r="C29" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="D29" s="50"/>
+      <c r="D29" s="50">
+        <f>Munka1!D29</f>
+        <v>1</v>
+      </c>
       <c r="E29" s="31"/>
       <c r="F29" s="50"/>
       <c r="G29" s="48"/>
@@ -5094,9 +5205,9 @@
       <c r="I29" s="12">
         <v>2</v>
       </c>
-      <c r="J29" s="27" t="str">
+      <c r="J29" s="27">
         <f t="shared" si="0"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="K29" s="28" t="str">
         <f t="shared" si="1"/>
@@ -5104,10 +5215,10 @@
       </c>
       <c r="L29" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A30" s="34">
         <f t="shared" si="3"/>
         <v>29</v>
@@ -5118,7 +5229,10 @@
       <c r="C30" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="D30" s="50"/>
+      <c r="D30" s="50">
+        <f>Munka1!D30</f>
+        <v>1</v>
+      </c>
       <c r="E30" s="31"/>
       <c r="F30" s="50"/>
       <c r="G30" s="48"/>
@@ -5126,9 +5240,9 @@
       <c r="I30" s="12">
         <v>1</v>
       </c>
-      <c r="J30" s="27" t="str">
+      <c r="J30" s="27">
         <f t="shared" si="0"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="K30" s="28" t="str">
         <f t="shared" si="1"/>
@@ -5136,10 +5250,10 @@
       </c>
       <c r="L30" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A31" s="34">
         <f t="shared" si="3"/>
         <v>30</v>
@@ -5150,7 +5264,10 @@
       <c r="C31" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="D31" s="50"/>
+      <c r="D31" s="50">
+        <f>Munka1!D31</f>
+        <v>0</v>
+      </c>
       <c r="E31" s="31"/>
       <c r="F31" s="50"/>
       <c r="G31" s="48"/>
@@ -5171,7 +5288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A32" s="34">
         <f t="shared" si="3"/>
         <v>31</v>
@@ -5182,7 +5299,10 @@
       <c r="C32" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="D32" s="50"/>
+      <c r="D32" s="50">
+        <f>Munka1!D32</f>
+        <v>0</v>
+      </c>
       <c r="E32" s="31"/>
       <c r="F32" s="50"/>
       <c r="G32" s="48"/>
@@ -5203,7 +5323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A33" s="34">
         <f t="shared" si="3"/>
         <v>32</v>
@@ -5214,7 +5334,10 @@
       <c r="C33" s="58" t="s">
         <v>63</v>
       </c>
-      <c r="D33" s="50"/>
+      <c r="D33" s="50">
+        <f>Munka1!D33</f>
+        <v>1</v>
+      </c>
       <c r="E33" s="30"/>
       <c r="F33" s="50"/>
       <c r="G33" s="47"/>
@@ -5222,9 +5345,9 @@
       <c r="I33" s="27">
         <v>1</v>
       </c>
-      <c r="J33" s="27" t="str">
+      <c r="J33" s="27">
         <f t="shared" si="0"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="K33" s="28" t="str">
         <f t="shared" si="1"/>
@@ -5232,10 +5355,10 @@
       </c>
       <c r="L33" s="27">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="34">
         <f t="shared" si="3"/>
         <v>33</v>
@@ -5246,7 +5369,10 @@
       <c r="C34" s="59" t="s">
         <v>81</v>
       </c>
-      <c r="D34" s="50"/>
+      <c r="D34" s="50">
+        <f>Munka1!D34</f>
+        <v>1</v>
+      </c>
       <c r="E34" s="31"/>
       <c r="F34" s="50"/>
       <c r="G34" s="48"/>
@@ -5254,9 +5380,9 @@
       <c r="I34" s="12">
         <v>1</v>
       </c>
-      <c r="J34" s="27" t="str">
+      <c r="J34" s="27">
         <f t="shared" si="0"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="K34" s="28" t="str">
         <f t="shared" si="1"/>
@@ -5264,10 +5390,10 @@
       </c>
       <c r="L34" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" s="83" customFormat="1" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" s="83" customFormat="1" ht="87.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="72">
         <f t="shared" si="3"/>
         <v>34</v>
@@ -5278,7 +5404,10 @@
       <c r="C35" s="74" t="s">
         <v>73</v>
       </c>
-      <c r="D35" s="75"/>
+      <c r="D35" s="75">
+        <f>Munka1!D35</f>
+        <v>1</v>
+      </c>
       <c r="E35" s="76"/>
       <c r="F35" s="75"/>
       <c r="G35" s="77"/>
@@ -5286,9 +5415,9 @@
       <c r="I35" s="79">
         <v>2</v>
       </c>
-      <c r="J35" s="80" t="str">
+      <c r="J35" s="80">
         <f t="shared" si="0"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="K35" s="81" t="str">
         <f t="shared" si="1"/>
@@ -5296,10 +5425,10 @@
       </c>
       <c r="L35" s="79">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" ht="33.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="33.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A36" s="71">
         <f t="shared" si="3"/>
         <v>35</v>
@@ -5310,7 +5439,10 @@
       <c r="C36" s="58" t="s">
         <v>76</v>
       </c>
-      <c r="D36" s="50"/>
+      <c r="D36" s="50">
+        <f>Munka1!D36</f>
+        <v>1</v>
+      </c>
       <c r="E36" s="30"/>
       <c r="F36" s="50"/>
       <c r="G36" s="47"/>
@@ -5322,7 +5454,7 @@
       </c>
       <c r="J36" s="27">
         <f t="shared" si="0"/>
-        <v>-5</v>
+        <v>4</v>
       </c>
       <c r="K36" s="28">
         <f t="shared" si="1"/>
@@ -5330,10 +5462,10 @@
       </c>
       <c r="L36" s="27">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A37" s="34">
         <f t="shared" si="3"/>
         <v>36</v>
@@ -5344,7 +5476,10 @@
       <c r="C37" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="D37" s="50"/>
+      <c r="D37" s="50">
+        <f>Munka1!D37</f>
+        <v>1</v>
+      </c>
       <c r="E37" s="31"/>
       <c r="F37" s="50"/>
       <c r="G37" s="48"/>
@@ -5352,9 +5487,9 @@
       <c r="I37" s="12">
         <v>1</v>
       </c>
-      <c r="J37" s="27" t="str">
+      <c r="J37" s="27">
         <f t="shared" si="0"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="K37" s="28" t="str">
         <f t="shared" si="1"/>
@@ -5362,10 +5497,10 @@
       </c>
       <c r="L37" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A38" s="34">
         <f t="shared" si="3"/>
         <v>37</v>
@@ -5376,7 +5511,10 @@
       <c r="C38" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="D38" s="50"/>
+      <c r="D38" s="50">
+        <f>Munka1!D38</f>
+        <v>1</v>
+      </c>
       <c r="E38" s="31"/>
       <c r="F38" s="50"/>
       <c r="G38" s="48"/>
@@ -5388,7 +5526,7 @@
       </c>
       <c r="J38" s="27">
         <f t="shared" si="0"/>
-        <v>-5</v>
+        <v>2</v>
       </c>
       <c r="K38" s="28">
         <f t="shared" si="1"/>
@@ -5396,10 +5534,10 @@
       </c>
       <c r="L38" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A39" s="34">
         <f t="shared" si="3"/>
         <v>38</v>
@@ -5410,7 +5548,10 @@
       <c r="C39" s="39" t="s">
         <v>104</v>
       </c>
-      <c r="D39" s="50"/>
+      <c r="D39" s="50">
+        <f>Munka1!D39</f>
+        <v>0</v>
+      </c>
       <c r="E39" s="31"/>
       <c r="F39" s="50"/>
       <c r="G39" s="48"/>
@@ -5431,7 +5572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="137.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" ht="137.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="34">
         <f t="shared" si="3"/>
         <v>39</v>
@@ -5442,7 +5583,10 @@
       <c r="C40" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="D40" s="50"/>
+      <c r="D40" s="50">
+        <f>Munka1!D40</f>
+        <v>0</v>
+      </c>
       <c r="E40" s="31"/>
       <c r="F40" s="50"/>
       <c r="G40" s="48"/>
@@ -5465,7 +5609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="159" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" ht="159" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="34">
         <f t="shared" si="3"/>
         <v>40</v>
@@ -5476,7 +5620,10 @@
       <c r="C41" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="D41" s="50"/>
+      <c r="D41" s="50">
+        <f>Munka1!D41</f>
+        <v>0</v>
+      </c>
       <c r="E41" s="32"/>
       <c r="F41" s="50"/>
       <c r="G41" s="49"/>
@@ -5497,7 +5644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:12" s="83" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" s="83" customFormat="1" ht="44" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A42" s="72">
         <f t="shared" si="3"/>
         <v>41</v>
@@ -5508,7 +5655,10 @@
       <c r="C42" s="74" t="s">
         <v>64</v>
       </c>
-      <c r="D42" s="75"/>
+      <c r="D42" s="75">
+        <f>Munka1!D42</f>
+        <v>1</v>
+      </c>
       <c r="E42" s="76"/>
       <c r="F42" s="75"/>
       <c r="G42" s="77"/>
@@ -5516,9 +5666,9 @@
       <c r="I42" s="79">
         <v>2</v>
       </c>
-      <c r="J42" s="80" t="str">
+      <c r="J42" s="80">
         <f t="shared" si="0"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="K42" s="81" t="str">
         <f t="shared" si="1"/>
@@ -5526,10 +5676,10 @@
       </c>
       <c r="L42" s="79">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="29.5" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A43" s="71">
         <f t="shared" si="3"/>
         <v>42</v>
@@ -5540,7 +5690,10 @@
       <c r="C43" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="D43" s="50"/>
+      <c r="D43" s="50">
+        <f>Munka1!D43</f>
+        <v>1</v>
+      </c>
       <c r="E43" s="30"/>
       <c r="F43" s="50"/>
       <c r="G43" s="47"/>
@@ -5552,7 +5705,7 @@
       </c>
       <c r="J43" s="27">
         <f t="shared" si="0"/>
-        <v>-5</v>
+        <v>2</v>
       </c>
       <c r="K43" s="28">
         <f t="shared" si="1"/>
@@ -5560,10 +5713,10 @@
       </c>
       <c r="L43" s="27">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A44" s="34">
         <f t="shared" si="3"/>
         <v>43</v>
@@ -5574,7 +5727,10 @@
       <c r="C44" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="D44" s="50"/>
+      <c r="D44" s="50">
+        <f>Munka1!D44</f>
+        <v>1</v>
+      </c>
       <c r="E44" s="31"/>
       <c r="F44" s="50"/>
       <c r="G44" s="48"/>
@@ -5586,7 +5742,7 @@
       </c>
       <c r="J44" s="27">
         <f t="shared" si="0"/>
-        <v>-5</v>
+        <v>2</v>
       </c>
       <c r="K44" s="28">
         <f t="shared" si="1"/>
@@ -5594,10 +5750,10 @@
       </c>
       <c r="L44" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A45" s="34">
         <f t="shared" si="3"/>
         <v>44</v>
@@ -5608,7 +5764,10 @@
       <c r="C45" s="37" t="s">
         <v>105</v>
       </c>
-      <c r="D45" s="50"/>
+      <c r="D45" s="50">
+        <f>Munka1!D45</f>
+        <v>1</v>
+      </c>
       <c r="E45" s="31"/>
       <c r="F45" s="50"/>
       <c r="G45" s="48"/>
@@ -5620,7 +5779,7 @@
       </c>
       <c r="J45" s="27">
         <f t="shared" si="0"/>
-        <v>-5</v>
+        <v>2</v>
       </c>
       <c r="K45" s="28">
         <f t="shared" si="1"/>
@@ -5628,10 +5787,10 @@
       </c>
       <c r="L45" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" s="11" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" s="11" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="34">
         <f t="shared" si="3"/>
         <v>45</v>
@@ -5642,7 +5801,10 @@
       <c r="C46" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="D46" s="50"/>
+      <c r="D46" s="50">
+        <f>Munka1!D46</f>
+        <v>1</v>
+      </c>
       <c r="E46" s="31"/>
       <c r="F46" s="50"/>
       <c r="G46" s="60"/>
@@ -5654,7 +5816,7 @@
       </c>
       <c r="J46" s="27">
         <f t="shared" si="0"/>
-        <v>-5</v>
+        <v>3</v>
       </c>
       <c r="K46" s="28">
         <f t="shared" si="1"/>
@@ -5662,10 +5824,10 @@
       </c>
       <c r="L46" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" s="11" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" s="11" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="34">
         <f t="shared" si="3"/>
         <v>46</v>
@@ -5676,7 +5838,10 @@
       <c r="C47" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="D47" s="50"/>
+      <c r="D47" s="50">
+        <f>Munka1!D47</f>
+        <v>1</v>
+      </c>
       <c r="E47" s="31" t="s">
         <v>18</v>
       </c>
@@ -5690,7 +5855,7 @@
       </c>
       <c r="J47" s="27">
         <f t="shared" si="0"/>
-        <v>-5</v>
+        <v>1</v>
       </c>
       <c r="K47" s="28">
         <f t="shared" si="1"/>
@@ -5698,10 +5863,10 @@
       </c>
       <c r="L47" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" s="11" customFormat="1" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" s="11" customFormat="1" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="34">
         <f t="shared" si="3"/>
         <v>47</v>
@@ -5712,7 +5877,10 @@
       <c r="C48" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="D48" s="50"/>
+      <c r="D48" s="50">
+        <f>Munka1!D48</f>
+        <v>1</v>
+      </c>
       <c r="E48" s="31" t="s">
         <v>18</v>
       </c>
@@ -5726,7 +5894,7 @@
       </c>
       <c r="J48" s="27">
         <f t="shared" si="0"/>
-        <v>-5</v>
+        <v>3</v>
       </c>
       <c r="K48" s="28">
         <f t="shared" si="1"/>
@@ -5734,23 +5902,23 @@
       </c>
       <c r="L48" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="NFGeAonkqAsS8Rw4VgtKMGRX/21iVNvgycveuOyDMhVMSAVcyM3sDEs4AwdoCL7er//mMCKNfjw+RuCIc6lhHA==" saltValue="oQtG/K2iAPJffpFsYCxxOw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="C2:C48">
-    <cfRule type="expression" dxfId="2" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="6" stopIfTrue="1">
       <formula>H2=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D1048576 F1:F1048576">
-    <cfRule type="cellIs" dxfId="1" priority="11" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="11" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D48 F2:F48">
-    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="3" priority="1" stopIfTrue="1" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5765,32 +5933,1727 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94904E72-664A-40B0-BA38-516605B17C1C}">
+  <dimension ref="A1:L48"/>
+  <sheetViews>
+    <sheetView topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="2.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.6328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.6328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="117.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="62"/>
+      <c r="B1" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="53" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="53" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="I1" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="26" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="217.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="34">
+        <v>1</v>
+      </c>
+      <c r="B2" s="69" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2" s="50">
+        <v>1</v>
+      </c>
+      <c r="E2" s="30"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="54" t="b">
+        <v>1</v>
+      </c>
+      <c r="I2" s="27">
+        <v>3</v>
+      </c>
+      <c r="J2" s="27">
+        <f>IF(D2=1,I2,IF(H2=TRUE,-5,""))</f>
+        <v>3</v>
+      </c>
+      <c r="K2" s="28">
+        <f>IF(F2=1,I2,IF(H2=TRUE,-5,""))</f>
+        <v>-5</v>
+      </c>
+      <c r="L2" s="27">
+        <f>IF(J2=K2,0,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="116" x14ac:dyDescent="0.35">
+      <c r="A3" s="34">
+        <f>A2+1</f>
+        <v>2</v>
+      </c>
+      <c r="B3" s="69" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="50">
+        <v>1</v>
+      </c>
+      <c r="E3" s="31"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="55" t="b">
+        <v>1</v>
+      </c>
+      <c r="I3" s="12">
+        <v>2</v>
+      </c>
+      <c r="J3" s="27">
+        <f t="shared" ref="J3:J48" si="0">IF(D3=1,I3,IF(H3=TRUE,-5,""))</f>
+        <v>2</v>
+      </c>
+      <c r="K3" s="28">
+        <f t="shared" ref="K3:K48" si="1">IF(F3=1,I3,IF(H3=TRUE,-5,""))</f>
+        <v>-5</v>
+      </c>
+      <c r="L3" s="12">
+        <f t="shared" ref="L3:L48" si="2">IF(J3=K3,0,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="116" x14ac:dyDescent="0.35">
+      <c r="A4" s="34">
+        <f t="shared" ref="A4:A48" si="3">A3+1</f>
+        <v>3</v>
+      </c>
+      <c r="B4" s="70" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4" s="50"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="55" t="b">
+        <v>1</v>
+      </c>
+      <c r="I4" s="12">
+        <v>3</v>
+      </c>
+      <c r="J4" s="27">
+        <f t="shared" si="0"/>
+        <v>-5</v>
+      </c>
+      <c r="K4" s="28">
+        <f t="shared" si="1"/>
+        <v>-5</v>
+      </c>
+      <c r="L4" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="246.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="34">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="69" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="D5" s="50">
+        <v>1</v>
+      </c>
+      <c r="E5" s="31"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="55" t="b">
+        <v>1</v>
+      </c>
+      <c r="I5" s="12">
+        <v>3</v>
+      </c>
+      <c r="J5" s="27">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="K5" s="28">
+        <f t="shared" si="1"/>
+        <v>-5</v>
+      </c>
+      <c r="L5" s="12">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="188.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="34">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="69" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" s="50"/>
+      <c r="E6" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="50"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="55" t="b">
+        <v>1</v>
+      </c>
+      <c r="I6" s="12">
+        <v>3</v>
+      </c>
+      <c r="J6" s="27">
+        <f t="shared" si="0"/>
+        <v>-5</v>
+      </c>
+      <c r="K6" s="28">
+        <f t="shared" si="1"/>
+        <v>-5</v>
+      </c>
+      <c r="L6" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="203" x14ac:dyDescent="0.35">
+      <c r="A7" s="34">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="69" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="D7" s="50"/>
+      <c r="E7" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="50"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="55" t="b">
+        <v>1</v>
+      </c>
+      <c r="I7" s="12">
+        <v>3</v>
+      </c>
+      <c r="J7" s="27">
+        <f t="shared" si="0"/>
+        <v>-5</v>
+      </c>
+      <c r="K7" s="28">
+        <f t="shared" si="1"/>
+        <v>-5</v>
+      </c>
+      <c r="L7" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="217.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="34">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="69" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="D8" s="50">
+        <v>1</v>
+      </c>
+      <c r="E8" s="31"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="55" t="b">
+        <v>1</v>
+      </c>
+      <c r="I8" s="12">
+        <v>2</v>
+      </c>
+      <c r="J8" s="27">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="K8" s="28">
+        <f t="shared" si="1"/>
+        <v>-5</v>
+      </c>
+      <c r="L8" s="12">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="218" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="72">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="73" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="74" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" s="75"/>
+      <c r="E9" s="76"/>
+      <c r="F9" s="75"/>
+      <c r="G9" s="77"/>
+      <c r="H9" s="78" t="b">
+        <v>1</v>
+      </c>
+      <c r="I9" s="79">
+        <v>4</v>
+      </c>
+      <c r="J9" s="80">
+        <f t="shared" si="0"/>
+        <v>-5</v>
+      </c>
+      <c r="K9" s="81">
+        <f t="shared" si="1"/>
+        <v>-5</v>
+      </c>
+      <c r="L9" s="79">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="334" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="71">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="84" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="58" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10" s="50"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="54" t="b">
+        <v>1</v>
+      </c>
+      <c r="I10" s="27">
+        <v>5</v>
+      </c>
+      <c r="J10" s="27">
+        <f t="shared" si="0"/>
+        <v>-5</v>
+      </c>
+      <c r="K10" s="28">
+        <f t="shared" si="1"/>
+        <v>-5</v>
+      </c>
+      <c r="L10" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="145" x14ac:dyDescent="0.35">
+      <c r="A11" s="34">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="85" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" s="50">
+        <v>1</v>
+      </c>
+      <c r="E11" s="31"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="55" t="b">
+        <v>1</v>
+      </c>
+      <c r="I11" s="12">
+        <v>3</v>
+      </c>
+      <c r="J11" s="27">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="K11" s="28">
+        <f t="shared" si="1"/>
+        <v>-5</v>
+      </c>
+      <c r="L11" s="12">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="34">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="B12" s="85" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="50">
+        <v>1</v>
+      </c>
+      <c r="E12" s="31"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="55"/>
+      <c r="I12" s="12">
+        <v>1</v>
+      </c>
+      <c r="J12" s="27">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K12" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L12" s="12">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="34">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="B13" s="85" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="50">
+        <v>1</v>
+      </c>
+      <c r="E13" s="31"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="55"/>
+      <c r="I13" s="12">
+        <v>1</v>
+      </c>
+      <c r="J13" s="27">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K13" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L13" s="12">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="145" x14ac:dyDescent="0.35">
+      <c r="A14" s="34">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="B14" s="85" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="50"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="55"/>
+      <c r="I14" s="12">
+        <v>1</v>
+      </c>
+      <c r="J14" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K14" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L14" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="34">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="B15" s="85" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" s="50">
+        <v>1</v>
+      </c>
+      <c r="E15" s="31"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="55"/>
+      <c r="I15" s="12">
+        <v>1</v>
+      </c>
+      <c r="J15" s="27">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K15" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L15" s="12">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="87" x14ac:dyDescent="0.35">
+      <c r="A16" s="34">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="B16" s="85" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" s="50">
+        <v>1</v>
+      </c>
+      <c r="E16" s="31"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="55"/>
+      <c r="I16" s="12">
+        <v>1</v>
+      </c>
+      <c r="J16" s="27">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K16" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L16" s="12">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="34">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="B17" s="85" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" s="50"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="55"/>
+      <c r="I17" s="12">
+        <v>1</v>
+      </c>
+      <c r="J17" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K17" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L17" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="34">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="B18" s="85" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="50">
+        <v>1</v>
+      </c>
+      <c r="E18" s="31"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="55"/>
+      <c r="I18" s="12">
+        <v>1</v>
+      </c>
+      <c r="J18" s="27">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K18" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L18" s="12">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="174" x14ac:dyDescent="0.35">
+      <c r="A19" s="34">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="B19" s="85" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="D19" s="50"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="48"/>
+      <c r="H19" s="55"/>
+      <c r="I19" s="12">
+        <v>1</v>
+      </c>
+      <c r="J19" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K19" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L19" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="304.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="34">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="B20" s="85" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="D20" s="50"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="48"/>
+      <c r="H20" s="55"/>
+      <c r="I20" s="12">
+        <v>3</v>
+      </c>
+      <c r="J20" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K20" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L20" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="34">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="B21" s="85" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="D21" s="50">
+        <v>1</v>
+      </c>
+      <c r="E21" s="31"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="48"/>
+      <c r="H21" s="55"/>
+      <c r="I21" s="12">
+        <v>3</v>
+      </c>
+      <c r="J21" s="27">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="K21" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L21" s="12">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="34">
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
+      <c r="B22" s="85" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="37" t="s">
+        <v>99</v>
+      </c>
+      <c r="D22" s="50"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="48"/>
+      <c r="H22" s="55"/>
+      <c r="I22" s="12">
+        <v>1</v>
+      </c>
+      <c r="J22" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K22" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L22" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="34">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="B23" s="85" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="50">
+        <v>1</v>
+      </c>
+      <c r="E23" s="31"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="48"/>
+      <c r="H23" s="55"/>
+      <c r="I23" s="12">
+        <v>1</v>
+      </c>
+      <c r="J23" s="27">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K23" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L23" s="12">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="34">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
+      <c r="B24" s="85" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="D24" s="50">
+        <v>1</v>
+      </c>
+      <c r="E24" s="31"/>
+      <c r="F24" s="50"/>
+      <c r="G24" s="48"/>
+      <c r="H24" s="55"/>
+      <c r="I24" s="12">
+        <v>1</v>
+      </c>
+      <c r="J24" s="27">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K24" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L24" s="12">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="34">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+      <c r="B25" s="85" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="D25" s="50">
+        <v>1</v>
+      </c>
+      <c r="E25" s="31"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="48"/>
+      <c r="H25" s="55"/>
+      <c r="I25" s="12">
+        <v>1</v>
+      </c>
+      <c r="J25" s="27">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K25" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L25" s="12">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="72">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="B26" s="86" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="74" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" s="75">
+        <v>1</v>
+      </c>
+      <c r="E26" s="76"/>
+      <c r="F26" s="75"/>
+      <c r="G26" s="77"/>
+      <c r="H26" s="78"/>
+      <c r="I26" s="79">
+        <v>1</v>
+      </c>
+      <c r="J26" s="80">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K26" s="81" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L26" s="79">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="102" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="71">
+        <f t="shared" si="3"/>
+        <v>26</v>
+      </c>
+      <c r="B27" s="87" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="58" t="s">
+        <v>62</v>
+      </c>
+      <c r="D27" s="50">
+        <v>1</v>
+      </c>
+      <c r="E27" s="30"/>
+      <c r="F27" s="50"/>
+      <c r="G27" s="47"/>
+      <c r="H27" s="54"/>
+      <c r="I27" s="27">
+        <v>2</v>
+      </c>
+      <c r="J27" s="27">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="K27" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L27" s="27">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="246.5" x14ac:dyDescent="0.35">
+      <c r="A28" s="34">
+        <f t="shared" si="3"/>
+        <v>27</v>
+      </c>
+      <c r="B28" s="88" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="59" t="s">
+        <v>103</v>
+      </c>
+      <c r="D28" s="50">
+        <v>1</v>
+      </c>
+      <c r="E28" s="31"/>
+      <c r="F28" s="50"/>
+      <c r="G28" s="48"/>
+      <c r="H28" s="55"/>
+      <c r="I28" s="12">
+        <v>2</v>
+      </c>
+      <c r="J28" s="27">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="K28" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L28" s="12">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="333.5" x14ac:dyDescent="0.35">
+      <c r="A29" s="34">
+        <f t="shared" si="3"/>
+        <v>28</v>
+      </c>
+      <c r="B29" s="88" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="D29" s="50">
+        <v>1</v>
+      </c>
+      <c r="E29" s="31"/>
+      <c r="F29" s="50"/>
+      <c r="G29" s="48"/>
+      <c r="H29" s="55"/>
+      <c r="I29" s="12">
+        <v>2</v>
+      </c>
+      <c r="J29" s="27">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="K29" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L29" s="12">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A30" s="34">
+        <f t="shared" si="3"/>
+        <v>29</v>
+      </c>
+      <c r="B30" s="88" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" s="50">
+        <v>1</v>
+      </c>
+      <c r="E30" s="31"/>
+      <c r="F30" s="50"/>
+      <c r="G30" s="48"/>
+      <c r="H30" s="55"/>
+      <c r="I30" s="12">
+        <v>1</v>
+      </c>
+      <c r="J30" s="27">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K30" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L30" s="12">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="58" x14ac:dyDescent="0.35">
+      <c r="A31" s="34">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="B31" s="88" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" s="50"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="50"/>
+      <c r="G31" s="48"/>
+      <c r="H31" s="55"/>
+      <c r="I31" s="12">
+        <v>1</v>
+      </c>
+      <c r="J31" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K31" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L31" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="A32" s="34">
+        <f t="shared" si="3"/>
+        <v>31</v>
+      </c>
+      <c r="B32" s="88" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="D32" s="50"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="50"/>
+      <c r="G32" s="48"/>
+      <c r="H32" s="55"/>
+      <c r="I32" s="12">
+        <v>3</v>
+      </c>
+      <c r="J32" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K32" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L32" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A33" s="34">
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
+      <c r="B33" s="88" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" s="58" t="s">
+        <v>63</v>
+      </c>
+      <c r="D33" s="50">
+        <v>1</v>
+      </c>
+      <c r="E33" s="30"/>
+      <c r="F33" s="50"/>
+      <c r="G33" s="47"/>
+      <c r="H33" s="54"/>
+      <c r="I33" s="27">
+        <v>1</v>
+      </c>
+      <c r="J33" s="27">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K33" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L33" s="27">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A34" s="34">
+        <f t="shared" si="3"/>
+        <v>33</v>
+      </c>
+      <c r="B34" s="88" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="59" t="s">
+        <v>81</v>
+      </c>
+      <c r="D34" s="50">
+        <v>1</v>
+      </c>
+      <c r="E34" s="31"/>
+      <c r="F34" s="50"/>
+      <c r="G34" s="48"/>
+      <c r="H34" s="55"/>
+      <c r="I34" s="12">
+        <v>1</v>
+      </c>
+      <c r="J34" s="27">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K34" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L34" s="12">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="189" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="72">
+        <f t="shared" si="3"/>
+        <v>34</v>
+      </c>
+      <c r="B35" s="89" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35" s="74" t="s">
+        <v>73</v>
+      </c>
+      <c r="D35" s="75">
+        <v>1</v>
+      </c>
+      <c r="E35" s="76"/>
+      <c r="F35" s="75"/>
+      <c r="G35" s="77"/>
+      <c r="H35" s="78"/>
+      <c r="I35" s="79">
+        <v>2</v>
+      </c>
+      <c r="J35" s="80">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="K35" s="81" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L35" s="79">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="87.5" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="71">
+        <f t="shared" si="3"/>
+        <v>35</v>
+      </c>
+      <c r="B36" s="92" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" s="58" t="s">
+        <v>76</v>
+      </c>
+      <c r="D36" s="50">
+        <v>1</v>
+      </c>
+      <c r="E36" s="30"/>
+      <c r="F36" s="50"/>
+      <c r="G36" s="47"/>
+      <c r="H36" s="54" t="b">
+        <v>1</v>
+      </c>
+      <c r="I36" s="27">
+        <v>4</v>
+      </c>
+      <c r="J36" s="27">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="K36" s="28">
+        <f t="shared" si="1"/>
+        <v>-5</v>
+      </c>
+      <c r="L36" s="27">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A37" s="34">
+        <f t="shared" si="3"/>
+        <v>36</v>
+      </c>
+      <c r="B37" s="93" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="D37" s="50">
+        <v>1</v>
+      </c>
+      <c r="E37" s="31"/>
+      <c r="F37" s="50"/>
+      <c r="G37" s="48"/>
+      <c r="H37" s="55"/>
+      <c r="I37" s="12">
+        <v>1</v>
+      </c>
+      <c r="J37" s="27">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K37" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L37" s="12">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="87" x14ac:dyDescent="0.35">
+      <c r="A38" s="34">
+        <f t="shared" si="3"/>
+        <v>37</v>
+      </c>
+      <c r="B38" s="93" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="D38" s="50">
+        <v>1</v>
+      </c>
+      <c r="E38" s="31"/>
+      <c r="F38" s="50"/>
+      <c r="G38" s="48"/>
+      <c r="H38" s="55" t="b">
+        <v>1</v>
+      </c>
+      <c r="I38" s="12">
+        <v>2</v>
+      </c>
+      <c r="J38" s="27">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="K38" s="28">
+        <f t="shared" si="1"/>
+        <v>-5</v>
+      </c>
+      <c r="L38" s="12">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="87" x14ac:dyDescent="0.35">
+      <c r="A39" s="34">
+        <f t="shared" si="3"/>
+        <v>38</v>
+      </c>
+      <c r="B39" s="93" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" s="39" t="s">
+        <v>104</v>
+      </c>
+      <c r="D39" s="50"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="50"/>
+      <c r="G39" s="48"/>
+      <c r="H39" s="55"/>
+      <c r="I39" s="12">
+        <v>5</v>
+      </c>
+      <c r="J39" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K39" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L39" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="348" x14ac:dyDescent="0.35">
+      <c r="A40" s="34">
+        <f t="shared" si="3"/>
+        <v>39</v>
+      </c>
+      <c r="B40" s="93" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="D40" s="50"/>
+      <c r="E40" s="31"/>
+      <c r="F40" s="50"/>
+      <c r="G40" s="48"/>
+      <c r="H40" s="55" t="b">
+        <v>1</v>
+      </c>
+      <c r="I40" s="12">
+        <v>3</v>
+      </c>
+      <c r="J40" s="27">
+        <f t="shared" si="0"/>
+        <v>-5</v>
+      </c>
+      <c r="K40" s="28">
+        <f t="shared" si="1"/>
+        <v>-5</v>
+      </c>
+      <c r="L40" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="406" x14ac:dyDescent="0.35">
+      <c r="A41" s="34">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="B41" s="94" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="D41" s="50"/>
+      <c r="E41" s="32"/>
+      <c r="F41" s="50"/>
+      <c r="G41" s="49"/>
+      <c r="H41" s="56"/>
+      <c r="I41" s="29">
+        <v>5</v>
+      </c>
+      <c r="J41" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K41" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L41" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="72">
+        <f t="shared" si="3"/>
+        <v>41</v>
+      </c>
+      <c r="B42" s="95" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" s="74" t="s">
+        <v>64</v>
+      </c>
+      <c r="D42" s="75">
+        <v>1</v>
+      </c>
+      <c r="E42" s="76"/>
+      <c r="F42" s="75"/>
+      <c r="G42" s="77"/>
+      <c r="H42" s="78"/>
+      <c r="I42" s="79">
+        <v>2</v>
+      </c>
+      <c r="J42" s="80">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="K42" s="81" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L42" s="79">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="73" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="71">
+        <f t="shared" si="3"/>
+        <v>42</v>
+      </c>
+      <c r="B43" s="90" t="s">
+        <v>28</v>
+      </c>
+      <c r="C43" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="D43" s="50">
+        <v>1</v>
+      </c>
+      <c r="E43" s="30"/>
+      <c r="F43" s="50"/>
+      <c r="G43" s="47"/>
+      <c r="H43" s="54" t="b">
+        <v>1</v>
+      </c>
+      <c r="I43" s="27">
+        <v>2</v>
+      </c>
+      <c r="J43" s="27">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="K43" s="28">
+        <f t="shared" si="1"/>
+        <v>-5</v>
+      </c>
+      <c r="L43" s="27">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A44" s="34">
+        <f t="shared" si="3"/>
+        <v>43</v>
+      </c>
+      <c r="B44" s="91" t="s">
+        <v>28</v>
+      </c>
+      <c r="C44" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="D44" s="50">
+        <v>1</v>
+      </c>
+      <c r="E44" s="31"/>
+      <c r="F44" s="50"/>
+      <c r="G44" s="48"/>
+      <c r="H44" s="55" t="b">
+        <v>1</v>
+      </c>
+      <c r="I44" s="12">
+        <v>2</v>
+      </c>
+      <c r="J44" s="27">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="K44" s="28">
+        <f t="shared" si="1"/>
+        <v>-5</v>
+      </c>
+      <c r="L44" s="12">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="174" x14ac:dyDescent="0.35">
+      <c r="A45" s="34">
+        <f t="shared" si="3"/>
+        <v>44</v>
+      </c>
+      <c r="B45" s="91" t="s">
+        <v>28</v>
+      </c>
+      <c r="C45" s="37" t="s">
+        <v>105</v>
+      </c>
+      <c r="D45" s="50">
+        <v>1</v>
+      </c>
+      <c r="E45" s="31"/>
+      <c r="F45" s="50"/>
+      <c r="G45" s="48"/>
+      <c r="H45" s="55" t="b">
+        <v>1</v>
+      </c>
+      <c r="I45" s="12">
+        <v>2</v>
+      </c>
+      <c r="J45" s="27">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="K45" s="28">
+        <f t="shared" si="1"/>
+        <v>-5</v>
+      </c>
+      <c r="L45" s="12">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="87" x14ac:dyDescent="0.35">
+      <c r="A46" s="34">
+        <f t="shared" si="3"/>
+        <v>45</v>
+      </c>
+      <c r="B46" s="91" t="s">
+        <v>28</v>
+      </c>
+      <c r="C46" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="D46" s="50">
+        <v>1</v>
+      </c>
+      <c r="E46" s="31"/>
+      <c r="F46" s="50"/>
+      <c r="G46" s="60"/>
+      <c r="H46" s="55" t="b">
+        <v>1</v>
+      </c>
+      <c r="I46" s="12">
+        <v>3</v>
+      </c>
+      <c r="J46" s="27">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="K46" s="28">
+        <f t="shared" si="1"/>
+        <v>-5</v>
+      </c>
+      <c r="L46" s="12">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="87" x14ac:dyDescent="0.35">
+      <c r="A47" s="34">
+        <f t="shared" si="3"/>
+        <v>46</v>
+      </c>
+      <c r="B47" s="91" t="s">
+        <v>28</v>
+      </c>
+      <c r="C47" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="D47" s="50">
+        <v>1</v>
+      </c>
+      <c r="E47" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="F47" s="50"/>
+      <c r="G47" s="60"/>
+      <c r="H47" s="55" t="b">
+        <v>1</v>
+      </c>
+      <c r="I47" s="12">
+        <v>1</v>
+      </c>
+      <c r="J47" s="27">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K47" s="28">
+        <f t="shared" si="1"/>
+        <v>-5</v>
+      </c>
+      <c r="L47" s="12">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="261" x14ac:dyDescent="0.35">
+      <c r="A48" s="34">
+        <f t="shared" si="3"/>
+        <v>47</v>
+      </c>
+      <c r="B48" s="91" t="s">
+        <v>28</v>
+      </c>
+      <c r="C48" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="D48" s="50">
+        <v>1</v>
+      </c>
+      <c r="E48" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="F48" s="50"/>
+      <c r="G48" s="60"/>
+      <c r="H48" s="55" t="b">
+        <v>1</v>
+      </c>
+      <c r="I48" s="12">
+        <v>3</v>
+      </c>
+      <c r="J48" s="27">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="K48" s="28">
+        <f t="shared" si="1"/>
+        <v>-5</v>
+      </c>
+      <c r="L48" s="12">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C2:C48">
+    <cfRule type="expression" dxfId="2" priority="2" stopIfTrue="1">
+      <formula>H2=TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1:D48 F1:F48">
+    <cfRule type="cellIs" dxfId="1" priority="3" stopIfTrue="1" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D48 F2:F48">
+    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="notEqual">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D48" xr:uid="{CF2E138B-8C14-4940-BECA-F7D16847485D}">
+      <formula1>"1,0"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11AA35B6-AD65-4088-A985-9959341357D7}">
   <sheetPr codeName="Munka7"/>
   <dimension ref="A1:AC48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" customWidth="1"/>
+    <col min="3" max="3" width="14.81640625" customWidth="1"/>
+    <col min="4" max="4" width="13.453125" customWidth="1"/>
+    <col min="5" max="5" width="13.26953125" customWidth="1"/>
+    <col min="6" max="6" width="12.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:29" ht="23" x14ac:dyDescent="0.5">
       <c r="A1" s="1"/>
-      <c r="B1" s="125" t="s">
+      <c r="B1" s="126" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="125"/>
-      <c r="D1" s="126"/>
-      <c r="E1" s="126"/>
-      <c r="F1" s="126"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="127"/>
+      <c r="E1" s="127"/>
+      <c r="F1" s="127"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -5815,7 +7678,7 @@
       <c r="AB1" s="1"/>
       <c r="AC1" s="1"/>
     </row>
-    <row r="2" spans="1:29" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="3"/>
       <c r="C2" s="4" t="s">
@@ -5854,25 +7717,25 @@
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
     </row>
-    <row r="3" spans="1:29" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="3">
         <f>COUNTIFS(Irányelvek!B2:B48,"="&amp;B3,Irányelvek!D2:D48,1)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D3" s="3">
         <f t="shared" ref="D3:D7" si="0">E3-C3</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E3" s="64">
         <v>8</v>
       </c>
       <c r="F3" s="9">
         <f>C3/E3</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -5898,25 +7761,25 @@
       <c r="AB3" s="1"/>
       <c r="AC3" s="1"/>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="3">
         <f>COUNTIFS(Irányelvek!B3:B49,"="&amp;B4,Irányelvek!D3:D49,1)</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D4" s="3">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E4" s="64">
         <v>17</v>
       </c>
       <c r="F4" s="9">
         <f t="shared" ref="F4:F8" si="1">C4/E4</f>
-        <v>0</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -5942,25 +7805,25 @@
       <c r="AB4" s="1"/>
       <c r="AC4" s="1"/>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="3">
         <f>COUNTIFS(Irányelvek!B4:B50,"="&amp;B5,Irányelvek!D4:D50,1)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D5" s="3">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E5" s="64">
         <v>9</v>
       </c>
       <c r="F5" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.77777777777777779</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -5986,25 +7849,25 @@
       <c r="AB5" s="1"/>
       <c r="AC5" s="1"/>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="3">
         <f>COUNTIFS(Irányelvek!B5:B51,"="&amp;B6,Irányelvek!D5:D51,1)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D6" s="3">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E6" s="64">
         <v>7</v>
       </c>
       <c r="F6" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -6030,25 +7893,25 @@
       <c r="AB6" s="1"/>
       <c r="AC6" s="1"/>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
         <v>28</v>
       </c>
       <c r="C7" s="3">
         <f>COUNTIFS(Irányelvek!B6:B52,"="&amp;B7,Irányelvek!D6:D52,1)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D7" s="3">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E7" s="64">
         <v>6</v>
       </c>
       <c r="F7" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -6074,18 +7937,18 @@
       <c r="AB7" s="1"/>
       <c r="AC7" s="1"/>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
       <c r="B8" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="7">
         <f>SUM(C3:C7)</f>
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="D8" s="7">
         <f>SUM(D3:D7)</f>
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="E8" s="7">
         <f>SUM(E3:E7)</f>
@@ -6093,7 +7956,7 @@
       </c>
       <c r="F8" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.68085106382978722</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -6119,7 +7982,7 @@
       <c r="AB8" s="1"/>
       <c r="AC8" s="1"/>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -6150,7 +8013,7 @@
       <c r="AB9" s="1"/>
       <c r="AC9" s="1"/>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -6181,7 +8044,7 @@
       <c r="AB10" s="1"/>
       <c r="AC10" s="1"/>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -6212,7 +8075,7 @@
       <c r="AB11" s="1"/>
       <c r="AC11" s="1"/>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -6243,7 +8106,7 @@
       <c r="AB12" s="1"/>
       <c r="AC12" s="1"/>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -6274,7 +8137,7 @@
       <c r="AB13" s="1"/>
       <c r="AC13" s="1"/>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -6305,7 +8168,7 @@
       <c r="AB14" s="1"/>
       <c r="AC14" s="1"/>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -6336,7 +8199,7 @@
       <c r="AB15" s="1"/>
       <c r="AC15" s="1"/>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -6367,7 +8230,7 @@
       <c r="AB16" s="1"/>
       <c r="AC16" s="1"/>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A17" s="1"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -6398,7 +8261,7 @@
       <c r="AB17" s="1"/>
       <c r="AC17" s="1"/>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A18" s="1"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -6429,7 +8292,7 @@
       <c r="AB18" s="1"/>
       <c r="AC18" s="1"/>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -6460,7 +8323,7 @@
       <c r="AB19" s="1"/>
       <c r="AC19" s="1"/>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -6491,7 +8354,7 @@
       <c r="AB20" s="1"/>
       <c r="AC20" s="1"/>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -6522,7 +8385,7 @@
       <c r="AB21" s="1"/>
       <c r="AC21" s="1"/>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A22" s="1"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -6553,7 +8416,7 @@
       <c r="AB22" s="1"/>
       <c r="AC22" s="1"/>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -6584,7 +8447,7 @@
       <c r="AB23" s="1"/>
       <c r="AC23" s="1"/>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A24" s="1"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -6615,7 +8478,7 @@
       <c r="AB24" s="1"/>
       <c r="AC24" s="1"/>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A25" s="1"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -6648,7 +8511,7 @@
       <c r="AB25" s="1"/>
       <c r="AC25" s="1"/>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -6679,7 +8542,7 @@
       <c r="AB26" s="1"/>
       <c r="AC26" s="1"/>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -6710,7 +8573,7 @@
       <c r="AB27" s="1"/>
       <c r="AC27" s="1"/>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -6741,7 +8604,7 @@
       <c r="AB28" s="1"/>
       <c r="AC28" s="1"/>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -6772,7 +8635,7 @@
       <c r="AB29" s="1"/>
       <c r="AC29" s="1"/>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -6803,7 +8666,7 @@
       <c r="AB30" s="1"/>
       <c r="AC30" s="1"/>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -6834,7 +8697,7 @@
       <c r="AB31" s="1"/>
       <c r="AC31" s="1"/>
     </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -6865,7 +8728,7 @@
       <c r="AB32" s="1"/>
       <c r="AC32" s="1"/>
     </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -6896,7 +8759,7 @@
       <c r="AB33" s="1"/>
       <c r="AC33" s="1"/>
     </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -6927,7 +8790,7 @@
       <c r="AB34" s="1"/>
       <c r="AC34" s="1"/>
     </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -6958,7 +8821,7 @@
       <c r="AB35" s="1"/>
       <c r="AC35" s="1"/>
     </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -6989,7 +8852,7 @@
       <c r="AB36" s="1"/>
       <c r="AC36" s="1"/>
     </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -7020,7 +8883,7 @@
       <c r="AB37" s="1"/>
       <c r="AC37" s="1"/>
     </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -7051,7 +8914,7 @@
       <c r="AB38" s="1"/>
       <c r="AC38" s="1"/>
     </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -7082,7 +8945,7 @@
       <c r="AB39" s="1"/>
       <c r="AC39" s="1"/>
     </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -7113,7 +8976,7 @@
       <c r="AB40" s="1"/>
       <c r="AC40" s="1"/>
     </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -7144,7 +9007,7 @@
       <c r="AB41" s="1"/>
       <c r="AC41" s="1"/>
     </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -7175,7 +9038,7 @@
       <c r="AB42" s="1"/>
       <c r="AC42" s="1"/>
     </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -7206,7 +9069,7 @@
       <c r="AB43" s="1"/>
       <c r="AC43" s="1"/>
     </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -7237,7 +9100,7 @@
       <c r="AB44" s="1"/>
       <c r="AC44" s="1"/>
     </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -7268,7 +9131,7 @@
       <c r="AB45" s="1"/>
       <c r="AC45" s="1"/>
     </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -7299,7 +9162,7 @@
       <c r="AB46" s="1"/>
       <c r="AC46" s="1"/>
     </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -7330,7 +9193,7 @@
       <c r="AB47" s="1"/>
       <c r="AC47" s="1"/>
     </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A48" s="1"/>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
@@ -7366,7 +9229,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DB8B864-1506-4CF9-B958-BB790343B9E4}">
   <sheetPr codeName="Munka5"/>
   <dimension ref="A1:AC48"/>
@@ -7375,24 +9238,24 @@
       <selection activeCell="B1" sqref="B1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" customWidth="1"/>
+    <col min="3" max="3" width="14.81640625" customWidth="1"/>
+    <col min="4" max="4" width="13.453125" customWidth="1"/>
+    <col min="5" max="5" width="13.26953125" customWidth="1"/>
+    <col min="6" max="6" width="12.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:29" ht="23" x14ac:dyDescent="0.5">
       <c r="A1" s="1"/>
-      <c r="B1" s="125" t="s">
+      <c r="B1" s="126" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="125"/>
-      <c r="D1" s="126"/>
-      <c r="E1" s="126"/>
-      <c r="F1" s="126"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="127"/>
+      <c r="E1" s="127"/>
+      <c r="F1" s="127"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -7417,7 +9280,7 @@
       <c r="AB1" s="1"/>
       <c r="AC1" s="1"/>
     </row>
-    <row r="2" spans="1:29" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="3"/>
       <c r="C2" s="4" t="s">
@@ -7456,7 +9319,7 @@
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
     </row>
-    <row r="3" spans="1:29" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="5" t="str">
         <f>Irányelvek!B2</f>
@@ -7501,7 +9364,7 @@
       <c r="AB3" s="1"/>
       <c r="AC3" s="1"/>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" s="5" t="s">
         <v>12</v>
@@ -7545,7 +9408,7 @@
       <c r="AB4" s="1"/>
       <c r="AC4" s="1"/>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
         <v>13</v>
@@ -7589,7 +9452,7 @@
       <c r="AB5" s="1"/>
       <c r="AC5" s="1"/>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
         <v>11</v>
@@ -7633,7 +9496,7 @@
       <c r="AB6" s="1"/>
       <c r="AC6" s="1"/>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
         <v>28</v>
@@ -7677,7 +9540,7 @@
       <c r="AB7" s="1"/>
       <c r="AC7" s="1"/>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
       <c r="B8" s="6" t="s">
         <v>4</v>
@@ -7722,7 +9585,7 @@
       <c r="AB8" s="1"/>
       <c r="AC8" s="1"/>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -7753,7 +9616,7 @@
       <c r="AB9" s="1"/>
       <c r="AC9" s="1"/>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -7784,7 +9647,7 @@
       <c r="AB10" s="1"/>
       <c r="AC10" s="1"/>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -7815,7 +9678,7 @@
       <c r="AB11" s="1"/>
       <c r="AC11" s="1"/>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -7846,7 +9709,7 @@
       <c r="AB12" s="1"/>
       <c r="AC12" s="1"/>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -7877,7 +9740,7 @@
       <c r="AB13" s="1"/>
       <c r="AC13" s="1"/>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -7908,7 +9771,7 @@
       <c r="AB14" s="1"/>
       <c r="AC14" s="1"/>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -7939,7 +9802,7 @@
       <c r="AB15" s="1"/>
       <c r="AC15" s="1"/>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -7970,7 +9833,7 @@
       <c r="AB16" s="1"/>
       <c r="AC16" s="1"/>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A17" s="1"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -8001,7 +9864,7 @@
       <c r="AB17" s="1"/>
       <c r="AC17" s="1"/>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A18" s="1"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -8032,7 +9895,7 @@
       <c r="AB18" s="1"/>
       <c r="AC18" s="1"/>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -8063,7 +9926,7 @@
       <c r="AB19" s="1"/>
       <c r="AC19" s="1"/>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -8094,7 +9957,7 @@
       <c r="AB20" s="1"/>
       <c r="AC20" s="1"/>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -8125,7 +9988,7 @@
       <c r="AB21" s="1"/>
       <c r="AC21" s="1"/>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A22" s="1"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -8156,7 +10019,7 @@
       <c r="AB22" s="1"/>
       <c r="AC22" s="1"/>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -8187,7 +10050,7 @@
       <c r="AB23" s="1"/>
       <c r="AC23" s="1"/>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A24" s="1"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -8218,7 +10081,7 @@
       <c r="AB24" s="1"/>
       <c r="AC24" s="1"/>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A25" s="1"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -8251,7 +10114,7 @@
       <c r="AB25" s="1"/>
       <c r="AC25" s="1"/>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -8282,7 +10145,7 @@
       <c r="AB26" s="1"/>
       <c r="AC26" s="1"/>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -8313,7 +10176,7 @@
       <c r="AB27" s="1"/>
       <c r="AC27" s="1"/>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -8344,7 +10207,7 @@
       <c r="AB28" s="1"/>
       <c r="AC28" s="1"/>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -8375,7 +10238,7 @@
       <c r="AB29" s="1"/>
       <c r="AC29" s="1"/>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -8406,7 +10269,7 @@
       <c r="AB30" s="1"/>
       <c r="AC30" s="1"/>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -8437,7 +10300,7 @@
       <c r="AB31" s="1"/>
       <c r="AC31" s="1"/>
     </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -8468,7 +10331,7 @@
       <c r="AB32" s="1"/>
       <c r="AC32" s="1"/>
     </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -8499,7 +10362,7 @@
       <c r="AB33" s="1"/>
       <c r="AC33" s="1"/>
     </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -8530,7 +10393,7 @@
       <c r="AB34" s="1"/>
       <c r="AC34" s="1"/>
     </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -8561,7 +10424,7 @@
       <c r="AB35" s="1"/>
       <c r="AC35" s="1"/>
     </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -8592,7 +10455,7 @@
       <c r="AB36" s="1"/>
       <c r="AC36" s="1"/>
     </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -8623,7 +10486,7 @@
       <c r="AB37" s="1"/>
       <c r="AC37" s="1"/>
     </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -8654,7 +10517,7 @@
       <c r="AB38" s="1"/>
       <c r="AC38" s="1"/>
     </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -8685,7 +10548,7 @@
       <c r="AB39" s="1"/>
       <c r="AC39" s="1"/>
     </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -8716,7 +10579,7 @@
       <c r="AB40" s="1"/>
       <c r="AC40" s="1"/>
     </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -8747,7 +10610,7 @@
       <c r="AB41" s="1"/>
       <c r="AC41" s="1"/>
     </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -8778,7 +10641,7 @@
       <c r="AB42" s="1"/>
       <c r="AC42" s="1"/>
     </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -8809,7 +10672,7 @@
       <c r="AB43" s="1"/>
       <c r="AC43" s="1"/>
     </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -8840,7 +10703,7 @@
       <c r="AB44" s="1"/>
       <c r="AC44" s="1"/>
     </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -8871,7 +10734,7 @@
       <c r="AB45" s="1"/>
       <c r="AC45" s="1"/>
     </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -8902,7 +10765,7 @@
       <c r="AB46" s="1"/>
       <c r="AC46" s="1"/>
     </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -8933,7 +10796,7 @@
       <c r="AB47" s="1"/>
       <c r="AC47" s="1"/>
     </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A48" s="1"/>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
@@ -8969,7 +10832,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45D9B84B-22C0-4822-8F64-548DFDA8DDBC}">
   <sheetPr codeName="Munka6"/>
   <dimension ref="A1:J19"/>
@@ -8978,24 +10841,24 @@
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="21" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" customWidth="1"/>
-    <col min="13" max="13" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" style="21" customWidth="1"/>
+    <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.7265625" customWidth="1"/>
+    <col min="7" max="7" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.7265625" customWidth="1"/>
+    <col min="13" max="13" width="13.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B1" s="22" t="s">
         <v>40</v>
       </c>
       <c r="C1" s="23"/>
       <c r="D1" s="23"/>
     </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="12"/>
       <c r="C2" s="12">
         <f>Fedőlap!D11</f>
@@ -9003,7 +10866,7 @@
       </c>
       <c r="D2" s="12"/>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="19">
         <v>0.49</v>
       </c>
@@ -9024,7 +10887,7 @@
         <v>7.7142857142857144</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="19">
         <v>0.62</v>
       </c>
@@ -9040,7 +10903,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="19">
         <v>0.75</v>
       </c>
@@ -9052,7 +10915,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B6" s="19">
         <v>0.88</v>
       </c>
@@ -9064,7 +10927,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="19">
         <v>1</v>
       </c>
@@ -9076,20 +10939,20 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.35">
       <c r="D8" s="16"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
       <c r="D9" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.35">
       <c r="D10" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B19" s="11"/>
     </row>
   </sheetData>

--- a/WebAlap/webfejlesztes_iranyelvek_v2024252_v2.xlsx
+++ b/WebAlap/webfejlesztes_iranyelvek_v2024252_v2.xlsx
@@ -1,24 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PatrikITWorkSpace\Elte_24_25_2\WebAlap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{986064A7-6229-4570-87B5-E1312D6EE22A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B888FDCA-3043-46E1-8FF7-AC6CC5133D83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="3" xr2:uid="{1BD8638E-000E-4472-8AE1-C32ECD41C6A4}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{1BD8638E-000E-4472-8AE1-C32ECD41C6A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Fedőlap" sheetId="2" r:id="rId1"/>
     <sheet name="Irányelvek" sheetId="8" r:id="rId2"/>
-    <sheet name="Munka1" sheetId="11" r:id="rId3"/>
-    <sheet name="Statisztika (hallgatói)" sheetId="10" r:id="rId4"/>
-    <sheet name="Statisztika (tutori)" sheetId="6" r:id="rId5"/>
-    <sheet name="Ponthatárok" sheetId="9" state="hidden" r:id="rId6"/>
+    <sheet name="Statisztika (hallgatói)" sheetId="10" r:id="rId3"/>
+    <sheet name="Statisztika (tutori)" sheetId="6" r:id="rId4"/>
+    <sheet name="Ponthatárok" sheetId="9" state="hidden" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Irányelvek!$A$1:$L$48</definedName>
@@ -42,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="108">
   <si>
     <t>Neved:</t>
   </si>
@@ -93,12 +92,6 @@
   </si>
   <si>
     <t>Kurzus követelmény</t>
-  </si>
-  <si>
-    <t>írd ide hogy melyik oldalon van, és mit csinál a script</t>
-  </si>
-  <si>
-    <t>írd ide , hogy melyik oldal</t>
   </si>
   <si>
     <t>Nincs olyan szöveg aláhúzva, ami nem tölt be link szerepet</t>
@@ -612,6 +605,15 @@
   </si>
   <si>
     <t>Web-fejlesztés kurzus beadandó feladata</t>
+  </si>
+  <si>
+    <t>contact.html</t>
+  </si>
+  <si>
+    <t>Mindegyik (aktuális oldal jelző)</t>
+  </si>
+  <si>
+    <t>Mind</t>
   </si>
 </sst>
 </file>
@@ -1597,33 +1599,7 @@
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
     <cellStyle name="Százalék" xfId="3" builtinId="5"/>
   </cellStyles>
-  <dxfs count="9">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFBDBD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF9F"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <fill>
         <patternFill>
@@ -1807,13 +1783,13 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.5</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.6470588235294118</c:v>
+                  <c:v>0.94117647058823528</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.77777777777777779</c:v>
+                  <c:v>0.88888888888888884</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.5714285714285714</c:v>
@@ -2130,13 +2106,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>4</c:v>
@@ -2237,13 +2213,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>3</c:v>
@@ -3614,8 +3590,8 @@
   <sheetPr codeName="Munka1"/>
   <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:H5"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3637,7 +3613,7 @@
     <row r="1" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="66"/>
       <c r="B1" s="117" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C1" s="117"/>
       <c r="D1" s="117"/>
@@ -3647,7 +3623,7 @@
       <c r="H1" s="117"/>
       <c r="I1" s="66"/>
       <c r="J1" s="68" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="23.5" x14ac:dyDescent="0.55000000000000004">
@@ -3666,7 +3642,7 @@
     <row r="3" spans="1:10" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="65"/>
       <c r="B3" s="96" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C3" s="119"/>
       <c r="D3" s="120"/>
@@ -3692,7 +3668,7 @@
     <row r="5" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="65"/>
       <c r="B5" s="123" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C5" s="123"/>
       <c r="D5" s="123"/>
@@ -3743,7 +3719,7 @@
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="65"/>
       <c r="B9" s="24" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -3756,7 +3732,7 @@
     <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="65"/>
       <c r="B10" s="99" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C10" s="99"/>
       <c r="D10" s="42">
@@ -3765,7 +3741,7 @@
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="121" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G10" s="121"/>
       <c r="H10" s="121"/>
@@ -3774,7 +3750,7 @@
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="65"/>
       <c r="B11" s="99" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C11" s="99"/>
       <c r="D11" s="42">
@@ -3790,7 +3766,7 @@
     <row r="12" spans="1:10" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="65"/>
       <c r="B12" s="99" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C12" s="99"/>
       <c r="D12" s="42">
@@ -3805,7 +3781,7 @@
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="65"/>
       <c r="B13" s="24" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C13" s="24"/>
       <c r="D13" s="24"/>
@@ -3818,7 +3794,7 @@
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="65"/>
       <c r="B14" s="99" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C14" s="99"/>
       <c r="D14" s="42" t="b">
@@ -3834,17 +3810,17 @@
     <row r="15" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="65"/>
       <c r="B15" s="99" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C15" s="99"/>
       <c r="D15" s="43">
         <f>SUM(Irányelvek!J2:J48)</f>
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="106" t="str">
         <f>CONCATENATE("Ha a feladatot önállóan értékelnénk, akkor az önértékelésed alapján ",VLOOKUP(D15,Ponthatárok!$C$3:$D$7,2,TRUE), "  érdemjegyet kapnál rá.")</f>
-        <v>Ha a feladatot önállóan értékelnénk, akkor az önértékelésed alapján elégtelen  érdemjegyet kapnál rá.</v>
+        <v>Ha a feladatot önállóan értékelnénk, akkor az önértékelésed alapján jó  érdemjegyet kapnál rá.</v>
       </c>
       <c r="G15" s="106"/>
       <c r="H15" s="106"/>
@@ -3853,7 +3829,7 @@
     <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="65"/>
       <c r="B16" s="24" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C16" s="24"/>
       <c r="D16" s="24"/>
@@ -3866,7 +3842,7 @@
     <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="65"/>
       <c r="B17" s="99" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C17" s="99"/>
       <c r="D17" s="42" t="str">
@@ -3875,7 +3851,7 @@
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="108" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G17" s="109"/>
       <c r="H17" s="110"/>
@@ -3884,7 +3860,7 @@
     <row r="18" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="65"/>
       <c r="B18" s="99" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C18" s="99"/>
       <c r="D18" s="43" t="str">
@@ -3900,7 +3876,7 @@
     <row r="19" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="65"/>
       <c r="B19" s="99" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C19" s="99"/>
       <c r="D19" s="43" t="str">
@@ -3916,7 +3892,7 @@
     <row r="20" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="65"/>
       <c r="B20" s="24" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -3929,7 +3905,7 @@
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="65"/>
       <c r="B21" s="99" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C21" s="99"/>
       <c r="D21" s="44">
@@ -3937,7 +3913,7 @@
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="106" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G21" s="107"/>
       <c r="H21" s="107"/>
@@ -3946,7 +3922,7 @@
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="65"/>
       <c r="B22" s="99" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C22" s="99"/>
       <c r="D22" s="44">
@@ -3961,7 +3937,7 @@
     <row r="23" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="65"/>
       <c r="B23" s="104" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C23" s="105"/>
       <c r="D23" s="44" t="str">
@@ -3977,7 +3953,7 @@
     <row r="24" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="65"/>
       <c r="B24" s="99" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C24" s="99"/>
       <c r="D24" s="43" t="str">
@@ -4004,7 +3980,7 @@
     <row r="26" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="65"/>
       <c r="B26" s="98" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C26" s="98"/>
       <c r="D26" s="45" t="b">
@@ -4019,7 +3995,7 @@
     <row r="27" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="65"/>
       <c r="B27" s="124" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C27" s="125"/>
       <c r="D27" s="45"/>
@@ -4032,7 +4008,7 @@
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="65"/>
       <c r="B28" s="118" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C28" s="118"/>
       <c r="D28" s="46"/>
@@ -4096,17 +4072,17 @@
     <mergeCell ref="F17:H19"/>
   </mergeCells>
   <conditionalFormatting sqref="D15">
-    <cfRule type="expression" dxfId="8" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="2" stopIfTrue="1">
       <formula>$D$15&gt;=$D$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18:D19">
-    <cfRule type="expression" dxfId="7" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="1" stopIfTrue="1">
       <formula>$D$18&gt;=$D$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24">
-    <cfRule type="expression" dxfId="6" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="3" stopIfTrue="1">
       <formula>$D$24&gt;=$D$22</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4154,9 +4130,9 @@
   <sheetPr codeName="Munka2"/>
   <dimension ref="A1:N48"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2:D48"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4184,31 +4160,31 @@
         <v>9</v>
       </c>
       <c r="D1" s="53" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E1" s="25" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F1" s="53" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G1" s="25" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H1" s="53" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I1" s="25" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J1" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="26" t="s">
         <v>21</v>
-      </c>
-      <c r="K1" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="L1" s="26" t="s">
-        <v>23</v>
       </c>
       <c r="N1" s="15"/>
     </row>
@@ -4220,10 +4196,9 @@
         <v>16</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D2" s="50">
-        <f>Munka1!D2</f>
         <v>1</v>
       </c>
       <c r="E2" s="30"/>
@@ -4257,10 +4232,9 @@
         <v>16</v>
       </c>
       <c r="C3" s="36" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D3" s="50">
-        <f>Munka1!D3</f>
         <v>1</v>
       </c>
       <c r="E3" s="31"/>
@@ -4294,11 +4268,10 @@
         <v>16</v>
       </c>
       <c r="C4" s="37" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D4" s="50">
-        <f>Munka1!D4</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" s="31"/>
       <c r="F4" s="50"/>
@@ -4311,7 +4284,7 @@
       </c>
       <c r="J4" s="27">
         <f t="shared" si="0"/>
-        <v>-5</v>
+        <v>3</v>
       </c>
       <c r="K4" s="28">
         <f t="shared" si="1"/>
@@ -4319,7 +4292,7 @@
       </c>
       <c r="L4" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4" s="17"/>
     </row>
@@ -4332,10 +4305,9 @@
         <v>16</v>
       </c>
       <c r="C5" s="37" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D5" s="50">
-        <f>Munka1!D5</f>
         <v>1</v>
       </c>
       <c r="E5" s="31"/>
@@ -4370,14 +4342,13 @@
         <v>16</v>
       </c>
       <c r="C6" s="37" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D6" s="50">
-        <f>Munka1!D6</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" s="31" t="s">
-        <v>18</v>
+        <v>105</v>
       </c>
       <c r="F6" s="50"/>
       <c r="G6" s="48"/>
@@ -4389,7 +4360,7 @@
       </c>
       <c r="J6" s="27">
         <f t="shared" si="0"/>
-        <v>-5</v>
+        <v>3</v>
       </c>
       <c r="K6" s="28">
         <f t="shared" si="1"/>
@@ -4397,7 +4368,7 @@
       </c>
       <c r="L6" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6" s="18"/>
     </row>
@@ -4410,14 +4381,13 @@
         <v>16</v>
       </c>
       <c r="C7" s="37" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D7" s="50">
-        <f>Munka1!D7</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" s="31" t="s">
-        <v>17</v>
+        <v>106</v>
       </c>
       <c r="F7" s="50"/>
       <c r="G7" s="48"/>
@@ -4429,7 +4399,7 @@
       </c>
       <c r="J7" s="27">
         <f t="shared" si="0"/>
-        <v>-5</v>
+        <v>3</v>
       </c>
       <c r="K7" s="28">
         <f t="shared" si="1"/>
@@ -4437,7 +4407,7 @@
       </c>
       <c r="L7" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:14" s="11" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -4449,10 +4419,9 @@
         <v>16</v>
       </c>
       <c r="C8" s="37" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D8" s="50">
-        <f>Munka1!D8</f>
         <v>1</v>
       </c>
       <c r="E8" s="31"/>
@@ -4486,11 +4455,10 @@
         <v>16</v>
       </c>
       <c r="C9" s="74" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D9" s="75">
-        <f>Munka1!D9</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" s="76"/>
       <c r="F9" s="75"/>
@@ -4503,7 +4471,7 @@
       </c>
       <c r="J9" s="80">
         <f t="shared" si="0"/>
-        <v>-5</v>
+        <v>4</v>
       </c>
       <c r="K9" s="81">
         <f t="shared" si="1"/>
@@ -4511,7 +4479,7 @@
       </c>
       <c r="L9" s="79">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="139.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
@@ -4523,11 +4491,10 @@
         <v>12</v>
       </c>
       <c r="C10" s="58" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D10" s="50">
-        <f>Munka1!D10</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" s="30"/>
       <c r="F10" s="50"/>
@@ -4540,7 +4507,7 @@
       </c>
       <c r="J10" s="27">
         <f t="shared" si="0"/>
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="K10" s="28">
         <f t="shared" si="1"/>
@@ -4548,7 +4515,7 @@
       </c>
       <c r="L10" s="27">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="63" customHeight="1" x14ac:dyDescent="0.35">
@@ -4560,10 +4527,9 @@
         <v>12</v>
       </c>
       <c r="C11" s="37" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D11" s="50">
-        <f>Munka1!D11</f>
         <v>1</v>
       </c>
       <c r="E11" s="31"/>
@@ -4597,10 +4563,9 @@
         <v>12</v>
       </c>
       <c r="C12" s="37" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D12" s="50">
-        <f>Munka1!D12</f>
         <v>1</v>
       </c>
       <c r="E12" s="31"/>
@@ -4632,10 +4597,9 @@
         <v>12</v>
       </c>
       <c r="C13" s="37" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D13" s="50">
-        <f>Munka1!D13</f>
         <v>1</v>
       </c>
       <c r="E13" s="31"/>
@@ -4667,11 +4631,10 @@
         <v>12</v>
       </c>
       <c r="C14" s="37" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D14" s="50">
-        <f>Munka1!D14</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" s="31"/>
       <c r="F14" s="50"/>
@@ -4680,9 +4643,9 @@
       <c r="I14" s="12">
         <v>1</v>
       </c>
-      <c r="J14" s="27" t="str">
+      <c r="J14" s="27">
         <f t="shared" si="0"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="K14" s="28" t="str">
         <f t="shared" si="1"/>
@@ -4690,7 +4653,7 @@
       </c>
       <c r="L14" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="29" x14ac:dyDescent="0.35">
@@ -4702,10 +4665,9 @@
         <v>12</v>
       </c>
       <c r="C15" s="37" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D15" s="50">
-        <f>Munka1!D15</f>
         <v>1</v>
       </c>
       <c r="E15" s="31"/>
@@ -4737,10 +4699,9 @@
         <v>12</v>
       </c>
       <c r="C16" s="37" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D16" s="50">
-        <f>Munka1!D16</f>
         <v>1</v>
       </c>
       <c r="E16" s="31"/>
@@ -4772,11 +4733,10 @@
         <v>12</v>
       </c>
       <c r="C17" s="37" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D17" s="50">
-        <f>Munka1!D17</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" s="31"/>
       <c r="F17" s="50"/>
@@ -4785,9 +4745,9 @@
       <c r="I17" s="12">
         <v>1</v>
       </c>
-      <c r="J17" s="27" t="str">
+      <c r="J17" s="27">
         <f t="shared" si="0"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="K17" s="28" t="str">
         <f t="shared" si="1"/>
@@ -4795,7 +4755,7 @@
       </c>
       <c r="L17" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4807,10 +4767,9 @@
         <v>12</v>
       </c>
       <c r="C18" s="37" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D18" s="50">
-        <f>Munka1!D18</f>
         <v>1</v>
       </c>
       <c r="E18" s="31"/>
@@ -4842,11 +4801,10 @@
         <v>12</v>
       </c>
       <c r="C19" s="37" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D19" s="50">
-        <f>Munka1!D19</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" s="31"/>
       <c r="F19" s="50"/>
@@ -4855,9 +4813,9 @@
       <c r="I19" s="12">
         <v>1</v>
       </c>
-      <c r="J19" s="27" t="str">
+      <c r="J19" s="27">
         <f t="shared" si="0"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="K19" s="28" t="str">
         <f t="shared" si="1"/>
@@ -4865,7 +4823,7 @@
       </c>
       <c r="L19" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="141" customHeight="1" x14ac:dyDescent="0.35">
@@ -4877,10 +4835,9 @@
         <v>12</v>
       </c>
       <c r="C20" s="37" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D20" s="50">
-        <f>Munka1!D20</f>
         <v>0</v>
       </c>
       <c r="E20" s="31"/>
@@ -4912,10 +4869,9 @@
         <v>12</v>
       </c>
       <c r="C21" s="37" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D21" s="50">
-        <f>Munka1!D21</f>
         <v>1</v>
       </c>
       <c r="E21" s="31"/>
@@ -4947,11 +4903,10 @@
         <v>12</v>
       </c>
       <c r="C22" s="37" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D22" s="50">
-        <f>Munka1!D22</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" s="31"/>
       <c r="F22" s="50"/>
@@ -4960,9 +4915,9 @@
       <c r="I22" s="12">
         <v>1</v>
       </c>
-      <c r="J22" s="27" t="str">
+      <c r="J22" s="27">
         <f t="shared" si="0"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="K22" s="28" t="str">
         <f t="shared" si="1"/>
@@ -4970,7 +4925,7 @@
       </c>
       <c r="L22" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="29" x14ac:dyDescent="0.35">
@@ -4982,10 +4937,9 @@
         <v>12</v>
       </c>
       <c r="C23" s="37" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D23" s="50">
-        <f>Munka1!D23</f>
         <v>1</v>
       </c>
       <c r="E23" s="31"/>
@@ -5017,10 +4971,9 @@
         <v>12</v>
       </c>
       <c r="C24" s="37" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D24" s="50">
-        <f>Munka1!D24</f>
         <v>1</v>
       </c>
       <c r="E24" s="31"/>
@@ -5052,10 +5005,9 @@
         <v>12</v>
       </c>
       <c r="C25" s="37" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D25" s="50">
-        <f>Munka1!D25</f>
         <v>1</v>
       </c>
       <c r="E25" s="31"/>
@@ -5087,10 +5039,9 @@
         <v>12</v>
       </c>
       <c r="C26" s="74" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D26" s="75">
-        <f>Munka1!D26</f>
         <v>1</v>
       </c>
       <c r="E26" s="76"/>
@@ -5122,10 +5073,9 @@
         <v>13</v>
       </c>
       <c r="C27" s="58" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D27" s="50">
-        <f>Munka1!D27</f>
         <v>1</v>
       </c>
       <c r="E27" s="30"/>
@@ -5157,10 +5107,9 @@
         <v>13</v>
       </c>
       <c r="C28" s="59" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D28" s="50">
-        <f>Munka1!D28</f>
         <v>1</v>
       </c>
       <c r="E28" s="31"/>
@@ -5192,10 +5141,9 @@
         <v>13</v>
       </c>
       <c r="C29" s="37" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D29" s="50">
-        <f>Munka1!D29</f>
         <v>1</v>
       </c>
       <c r="E29" s="31"/>
@@ -5230,7 +5178,6 @@
         <v>14</v>
       </c>
       <c r="D30" s="50">
-        <f>Munka1!D30</f>
         <v>1</v>
       </c>
       <c r="E30" s="31"/>
@@ -5265,8 +5212,7 @@
         <v>15</v>
       </c>
       <c r="D31" s="50">
-        <f>Munka1!D31</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" s="31"/>
       <c r="F31" s="50"/>
@@ -5275,9 +5221,9 @@
       <c r="I31" s="12">
         <v>1</v>
       </c>
-      <c r="J31" s="27" t="str">
+      <c r="J31" s="27">
         <f t="shared" si="0"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="K31" s="28" t="str">
         <f t="shared" si="1"/>
@@ -5285,7 +5231,7 @@
       </c>
       <c r="L31" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="58" x14ac:dyDescent="0.35">
@@ -5297,10 +5243,9 @@
         <v>13</v>
       </c>
       <c r="C32" s="37" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D32" s="50">
-        <f>Munka1!D32</f>
         <v>0</v>
       </c>
       <c r="E32" s="31"/>
@@ -5332,10 +5277,9 @@
         <v>13</v>
       </c>
       <c r="C33" s="58" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D33" s="50">
-        <f>Munka1!D33</f>
         <v>1</v>
       </c>
       <c r="E33" s="30"/>
@@ -5367,10 +5311,9 @@
         <v>13</v>
       </c>
       <c r="C34" s="59" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D34" s="50">
-        <f>Munka1!D34</f>
         <v>1</v>
       </c>
       <c r="E34" s="31"/>
@@ -5402,10 +5345,9 @@
         <v>13</v>
       </c>
       <c r="C35" s="74" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D35" s="75">
-        <f>Munka1!D35</f>
         <v>1</v>
       </c>
       <c r="E35" s="76"/>
@@ -5437,10 +5379,9 @@
         <v>11</v>
       </c>
       <c r="C36" s="58" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D36" s="50">
-        <f>Munka1!D36</f>
         <v>1</v>
       </c>
       <c r="E36" s="30"/>
@@ -5474,10 +5415,9 @@
         <v>11</v>
       </c>
       <c r="C37" s="39" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D37" s="50">
-        <f>Munka1!D37</f>
         <v>1</v>
       </c>
       <c r="E37" s="31"/>
@@ -5509,10 +5449,9 @@
         <v>11</v>
       </c>
       <c r="C38" s="37" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D38" s="50">
-        <f>Munka1!D38</f>
         <v>1</v>
       </c>
       <c r="E38" s="31"/>
@@ -5546,10 +5485,9 @@
         <v>11</v>
       </c>
       <c r="C39" s="39" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D39" s="50">
-        <f>Munka1!D39</f>
         <v>0</v>
       </c>
       <c r="E39" s="31"/>
@@ -5581,10 +5519,9 @@
         <v>11</v>
       </c>
       <c r="C40" s="37" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D40" s="50">
-        <f>Munka1!D40</f>
         <v>0</v>
       </c>
       <c r="E40" s="31"/>
@@ -5618,10 +5555,9 @@
         <v>11</v>
       </c>
       <c r="C41" s="38" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D41" s="50">
-        <f>Munka1!D41</f>
         <v>0</v>
       </c>
       <c r="E41" s="32"/>
@@ -5653,10 +5589,9 @@
         <v>11</v>
       </c>
       <c r="C42" s="74" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D42" s="75">
-        <f>Munka1!D42</f>
         <v>1</v>
       </c>
       <c r="E42" s="76"/>
@@ -5685,13 +5620,12 @@
         <v>42</v>
       </c>
       <c r="B43" s="90" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C43" s="58" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D43" s="50">
-        <f>Munka1!D43</f>
         <v>1</v>
       </c>
       <c r="E43" s="30"/>
@@ -5722,13 +5656,12 @@
         <v>43</v>
       </c>
       <c r="B44" s="91" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C44" s="37" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D44" s="50">
-        <f>Munka1!D44</f>
         <v>1</v>
       </c>
       <c r="E44" s="31"/>
@@ -5759,13 +5692,12 @@
         <v>44</v>
       </c>
       <c r="B45" s="91" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C45" s="37" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D45" s="50">
-        <f>Munka1!D45</f>
         <v>1</v>
       </c>
       <c r="E45" s="31"/>
@@ -5796,13 +5728,12 @@
         <v>45</v>
       </c>
       <c r="B46" s="91" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C46" s="37" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D46" s="50">
-        <f>Munka1!D46</f>
         <v>1</v>
       </c>
       <c r="E46" s="31"/>
@@ -5833,17 +5764,16 @@
         <v>46</v>
       </c>
       <c r="B47" s="91" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C47" s="37" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D47" s="50">
-        <f>Munka1!D47</f>
         <v>1</v>
       </c>
       <c r="E47" s="31" t="s">
-        <v>18</v>
+        <v>107</v>
       </c>
       <c r="F47" s="50"/>
       <c r="G47" s="60"/>
@@ -5872,17 +5802,16 @@
         <v>47</v>
       </c>
       <c r="B48" s="91" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C48" s="37" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D48" s="50">
-        <f>Munka1!D48</f>
         <v>1</v>
       </c>
       <c r="E48" s="31" t="s">
-        <v>18</v>
+        <v>107</v>
       </c>
       <c r="F48" s="50"/>
       <c r="G48" s="60"/>
@@ -5908,17 +5837,17 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="NFGeAonkqAsS8Rw4VgtKMGRX/21iVNvgycveuOyDMhVMSAVcyM3sDEs4AwdoCL7er//mMCKNfjw+RuCIc6lhHA==" saltValue="oQtG/K2iAPJffpFsYCxxOw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="C2:C48">
-    <cfRule type="expression" dxfId="5" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="6" stopIfTrue="1">
       <formula>H2=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D1048576 F1:F1048576">
-    <cfRule type="cellIs" dxfId="4" priority="11" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="11" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D48 F2:F48">
-    <cfRule type="cellIs" dxfId="3" priority="1" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5933,1706 +5862,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94904E72-664A-40B0-BA38-516605B17C1C}">
-  <dimension ref="A1:L48"/>
-  <sheetViews>
-    <sheetView topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D48"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="2.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.6328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.36328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.6328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="117.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="62"/>
-      <c r="B1" s="61" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="53" t="s">
-        <v>77</v>
-      </c>
-      <c r="E1" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" s="53" t="s">
-        <v>78</v>
-      </c>
-      <c r="G1" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="H1" s="53" t="s">
-        <v>71</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="J1" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="K1" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="L1" s="26" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="217.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="34">
-        <v>1</v>
-      </c>
-      <c r="B2" s="69" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="35" t="s">
-        <v>89</v>
-      </c>
-      <c r="D2" s="50">
-        <v>1</v>
-      </c>
-      <c r="E2" s="30"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="54" t="b">
-        <v>1</v>
-      </c>
-      <c r="I2" s="27">
-        <v>3</v>
-      </c>
-      <c r="J2" s="27">
-        <f>IF(D2=1,I2,IF(H2=TRUE,-5,""))</f>
-        <v>3</v>
-      </c>
-      <c r="K2" s="28">
-        <f>IF(F2=1,I2,IF(H2=TRUE,-5,""))</f>
-        <v>-5</v>
-      </c>
-      <c r="L2" s="27">
-        <f>IF(J2=K2,0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="116" x14ac:dyDescent="0.35">
-      <c r="A3" s="34">
-        <f>A2+1</f>
-        <v>2</v>
-      </c>
-      <c r="B3" s="69" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="D3" s="50">
-        <v>1</v>
-      </c>
-      <c r="E3" s="31"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="55" t="b">
-        <v>1</v>
-      </c>
-      <c r="I3" s="12">
-        <v>2</v>
-      </c>
-      <c r="J3" s="27">
-        <f t="shared" ref="J3:J48" si="0">IF(D3=1,I3,IF(H3=TRUE,-5,""))</f>
-        <v>2</v>
-      </c>
-      <c r="K3" s="28">
-        <f t="shared" ref="K3:K48" si="1">IF(F3=1,I3,IF(H3=TRUE,-5,""))</f>
-        <v>-5</v>
-      </c>
-      <c r="L3" s="12">
-        <f t="shared" ref="L3:L48" si="2">IF(J3=K3,0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="116" x14ac:dyDescent="0.35">
-      <c r="A4" s="34">
-        <f t="shared" ref="A4:A48" si="3">A3+1</f>
-        <v>3</v>
-      </c>
-      <c r="B4" s="70" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="37" t="s">
-        <v>90</v>
-      </c>
-      <c r="D4" s="50"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="55" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" s="12">
-        <v>3</v>
-      </c>
-      <c r="J4" s="27">
-        <f t="shared" si="0"/>
-        <v>-5</v>
-      </c>
-      <c r="K4" s="28">
-        <f t="shared" si="1"/>
-        <v>-5</v>
-      </c>
-      <c r="L4" s="12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="246.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="34">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="B5" s="69" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="37" t="s">
-        <v>96</v>
-      </c>
-      <c r="D5" s="50">
-        <v>1</v>
-      </c>
-      <c r="E5" s="31"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="55" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" s="12">
-        <v>3</v>
-      </c>
-      <c r="J5" s="27">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="K5" s="28">
-        <f t="shared" si="1"/>
-        <v>-5</v>
-      </c>
-      <c r="L5" s="12">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="188.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="34">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="B6" s="69" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="37" t="s">
-        <v>87</v>
-      </c>
-      <c r="D6" s="50"/>
-      <c r="E6" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="50"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="55" t="b">
-        <v>1</v>
-      </c>
-      <c r="I6" s="12">
-        <v>3</v>
-      </c>
-      <c r="J6" s="27">
-        <f t="shared" si="0"/>
-        <v>-5</v>
-      </c>
-      <c r="K6" s="28">
-        <f t="shared" si="1"/>
-        <v>-5</v>
-      </c>
-      <c r="L6" s="12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="203" x14ac:dyDescent="0.35">
-      <c r="A7" s="34">
-        <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="B7" s="69" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="37" t="s">
-        <v>82</v>
-      </c>
-      <c r="D7" s="50"/>
-      <c r="E7" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="50"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="55" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7" s="12">
-        <v>3</v>
-      </c>
-      <c r="J7" s="27">
-        <f t="shared" si="0"/>
-        <v>-5</v>
-      </c>
-      <c r="K7" s="28">
-        <f t="shared" si="1"/>
-        <v>-5</v>
-      </c>
-      <c r="L7" s="12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="217.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="34">
-        <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="B8" s="69" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="37" t="s">
-        <v>102</v>
-      </c>
-      <c r="D8" s="50">
-        <v>1</v>
-      </c>
-      <c r="E8" s="31"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="55" t="b">
-        <v>1</v>
-      </c>
-      <c r="I8" s="12">
-        <v>2</v>
-      </c>
-      <c r="J8" s="27">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="K8" s="28">
-        <f t="shared" si="1"/>
-        <v>-5</v>
-      </c>
-      <c r="L8" s="12">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="218" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="72">
-        <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="B9" s="73" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="74" t="s">
-        <v>68</v>
-      </c>
-      <c r="D9" s="75"/>
-      <c r="E9" s="76"/>
-      <c r="F9" s="75"/>
-      <c r="G9" s="77"/>
-      <c r="H9" s="78" t="b">
-        <v>1</v>
-      </c>
-      <c r="I9" s="79">
-        <v>4</v>
-      </c>
-      <c r="J9" s="80">
-        <f t="shared" si="0"/>
-        <v>-5</v>
-      </c>
-      <c r="K9" s="81">
-        <f t="shared" si="1"/>
-        <v>-5</v>
-      </c>
-      <c r="L9" s="79">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="334" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="71">
-        <f t="shared" si="3"/>
-        <v>9</v>
-      </c>
-      <c r="B10" s="84" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="58" t="s">
-        <v>79</v>
-      </c>
-      <c r="D10" s="50"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="54" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" s="27">
-        <v>5</v>
-      </c>
-      <c r="J10" s="27">
-        <f t="shared" si="0"/>
-        <v>-5</v>
-      </c>
-      <c r="K10" s="28">
-        <f t="shared" si="1"/>
-        <v>-5</v>
-      </c>
-      <c r="L10" s="27">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="145" x14ac:dyDescent="0.35">
-      <c r="A11" s="34">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="B11" s="85" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="37" t="s">
-        <v>80</v>
-      </c>
-      <c r="D11" s="50">
-        <v>1</v>
-      </c>
-      <c r="E11" s="31"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="55" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" s="12">
-        <v>3</v>
-      </c>
-      <c r="J11" s="27">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="K11" s="28">
-        <f t="shared" si="1"/>
-        <v>-5</v>
-      </c>
-      <c r="L11" s="12">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="34">
-        <f t="shared" si="3"/>
-        <v>11</v>
-      </c>
-      <c r="B12" s="85" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="37" t="s">
-        <v>59</v>
-      </c>
-      <c r="D12" s="50">
-        <v>1</v>
-      </c>
-      <c r="E12" s="31"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="55"/>
-      <c r="I12" s="12">
-        <v>1</v>
-      </c>
-      <c r="J12" s="27">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K12" s="28" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="L12" s="12">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="34">
-        <f t="shared" si="3"/>
-        <v>12</v>
-      </c>
-      <c r="B13" s="85" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="50">
-        <v>1</v>
-      </c>
-      <c r="E13" s="31"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="55"/>
-      <c r="I13" s="12">
-        <v>1</v>
-      </c>
-      <c r="J13" s="27">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K13" s="28" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="L13" s="12">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="145" x14ac:dyDescent="0.35">
-      <c r="A14" s="34">
-        <f t="shared" si="3"/>
-        <v>13</v>
-      </c>
-      <c r="B14" s="85" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="D14" s="50"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="55"/>
-      <c r="I14" s="12">
-        <v>1</v>
-      </c>
-      <c r="J14" s="27" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K14" s="28" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="L14" s="12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="34">
-        <f t="shared" si="3"/>
-        <v>14</v>
-      </c>
-      <c r="B15" s="85" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="D15" s="50">
-        <v>1</v>
-      </c>
-      <c r="E15" s="31"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="55"/>
-      <c r="I15" s="12">
-        <v>1</v>
-      </c>
-      <c r="J15" s="27">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K15" s="28" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="L15" s="12">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="87" x14ac:dyDescent="0.35">
-      <c r="A16" s="34">
-        <f t="shared" si="3"/>
-        <v>15</v>
-      </c>
-      <c r="B16" s="85" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="D16" s="50">
-        <v>1</v>
-      </c>
-      <c r="E16" s="31"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="55"/>
-      <c r="I16" s="12">
-        <v>1</v>
-      </c>
-      <c r="J16" s="27">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K16" s="28" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="L16" s="12">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="34">
-        <f t="shared" si="3"/>
-        <v>16</v>
-      </c>
-      <c r="B17" s="85" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="D17" s="50"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="55"/>
-      <c r="I17" s="12">
-        <v>1</v>
-      </c>
-      <c r="J17" s="27" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K17" s="28" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="L17" s="12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="34">
-        <f t="shared" si="3"/>
-        <v>17</v>
-      </c>
-      <c r="B18" s="85" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="50">
-        <v>1</v>
-      </c>
-      <c r="E18" s="31"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="48"/>
-      <c r="H18" s="55"/>
-      <c r="I18" s="12">
-        <v>1</v>
-      </c>
-      <c r="J18" s="27">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K18" s="28" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="L18" s="12">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="174" x14ac:dyDescent="0.35">
-      <c r="A19" s="34">
-        <f t="shared" si="3"/>
-        <v>18</v>
-      </c>
-      <c r="B19" s="85" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="37" t="s">
-        <v>97</v>
-      </c>
-      <c r="D19" s="50"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="50"/>
-      <c r="G19" s="48"/>
-      <c r="H19" s="55"/>
-      <c r="I19" s="12">
-        <v>1</v>
-      </c>
-      <c r="J19" s="27" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K19" s="28" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="L19" s="12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="304.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="34">
-        <f t="shared" si="3"/>
-        <v>19</v>
-      </c>
-      <c r="B20" s="85" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="37" t="s">
-        <v>98</v>
-      </c>
-      <c r="D20" s="50"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="50"/>
-      <c r="G20" s="48"/>
-      <c r="H20" s="55"/>
-      <c r="I20" s="12">
-        <v>3</v>
-      </c>
-      <c r="J20" s="27" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K20" s="28" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="L20" s="12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="34">
-        <f t="shared" si="3"/>
-        <v>20</v>
-      </c>
-      <c r="B21" s="85" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="37" t="s">
-        <v>85</v>
-      </c>
-      <c r="D21" s="50">
-        <v>1</v>
-      </c>
-      <c r="E21" s="31"/>
-      <c r="F21" s="50"/>
-      <c r="G21" s="48"/>
-      <c r="H21" s="55"/>
-      <c r="I21" s="12">
-        <v>3</v>
-      </c>
-      <c r="J21" s="27">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="K21" s="28" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="L21" s="12">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="34">
-        <f t="shared" si="3"/>
-        <v>21</v>
-      </c>
-      <c r="B22" s="85" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" s="37" t="s">
-        <v>99</v>
-      </c>
-      <c r="D22" s="50"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="50"/>
-      <c r="G22" s="48"/>
-      <c r="H22" s="55"/>
-      <c r="I22" s="12">
-        <v>1</v>
-      </c>
-      <c r="J22" s="27" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K22" s="28" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="L22" s="12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="34">
-        <f t="shared" si="3"/>
-        <v>22</v>
-      </c>
-      <c r="B23" s="85" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" s="50">
-        <v>1</v>
-      </c>
-      <c r="E23" s="31"/>
-      <c r="F23" s="50"/>
-      <c r="G23" s="48"/>
-      <c r="H23" s="55"/>
-      <c r="I23" s="12">
-        <v>1</v>
-      </c>
-      <c r="J23" s="27">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K23" s="28" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="L23" s="12">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="34">
-        <f t="shared" si="3"/>
-        <v>23</v>
-      </c>
-      <c r="B24" s="85" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" s="37" t="s">
-        <v>65</v>
-      </c>
-      <c r="D24" s="50">
-        <v>1</v>
-      </c>
-      <c r="E24" s="31"/>
-      <c r="F24" s="50"/>
-      <c r="G24" s="48"/>
-      <c r="H24" s="55"/>
-      <c r="I24" s="12">
-        <v>1</v>
-      </c>
-      <c r="J24" s="27">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K24" s="28" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="L24" s="12">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="34">
-        <f t="shared" si="3"/>
-        <v>24</v>
-      </c>
-      <c r="B25" s="85" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="37" t="s">
-        <v>100</v>
-      </c>
-      <c r="D25" s="50">
-        <v>1</v>
-      </c>
-      <c r="E25" s="31"/>
-      <c r="F25" s="50"/>
-      <c r="G25" s="48"/>
-      <c r="H25" s="55"/>
-      <c r="I25" s="12">
-        <v>1</v>
-      </c>
-      <c r="J25" s="27">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K25" s="28" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="L25" s="12">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="72">
-        <f t="shared" si="3"/>
-        <v>25</v>
-      </c>
-      <c r="B26" s="86" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" s="74" t="s">
-        <v>31</v>
-      </c>
-      <c r="D26" s="75">
-        <v>1</v>
-      </c>
-      <c r="E26" s="76"/>
-      <c r="F26" s="75"/>
-      <c r="G26" s="77"/>
-      <c r="H26" s="78"/>
-      <c r="I26" s="79">
-        <v>1</v>
-      </c>
-      <c r="J26" s="80">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K26" s="81" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="L26" s="79">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="102" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="71">
-        <f t="shared" si="3"/>
-        <v>26</v>
-      </c>
-      <c r="B27" s="87" t="s">
-        <v>13</v>
-      </c>
-      <c r="C27" s="58" t="s">
-        <v>62</v>
-      </c>
-      <c r="D27" s="50">
-        <v>1</v>
-      </c>
-      <c r="E27" s="30"/>
-      <c r="F27" s="50"/>
-      <c r="G27" s="47"/>
-      <c r="H27" s="54"/>
-      <c r="I27" s="27">
-        <v>2</v>
-      </c>
-      <c r="J27" s="27">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="K27" s="28" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="L27" s="27">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="246.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="34">
-        <f t="shared" si="3"/>
-        <v>27</v>
-      </c>
-      <c r="B28" s="88" t="s">
-        <v>13</v>
-      </c>
-      <c r="C28" s="59" t="s">
-        <v>103</v>
-      </c>
-      <c r="D28" s="50">
-        <v>1</v>
-      </c>
-      <c r="E28" s="31"/>
-      <c r="F28" s="50"/>
-      <c r="G28" s="48"/>
-      <c r="H28" s="55"/>
-      <c r="I28" s="12">
-        <v>2</v>
-      </c>
-      <c r="J28" s="27">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="K28" s="28" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="L28" s="12">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="333.5" x14ac:dyDescent="0.35">
-      <c r="A29" s="34">
-        <f t="shared" si="3"/>
-        <v>28</v>
-      </c>
-      <c r="B29" s="88" t="s">
-        <v>13</v>
-      </c>
-      <c r="C29" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="D29" s="50">
-        <v>1</v>
-      </c>
-      <c r="E29" s="31"/>
-      <c r="F29" s="50"/>
-      <c r="G29" s="48"/>
-      <c r="H29" s="55"/>
-      <c r="I29" s="12">
-        <v>2</v>
-      </c>
-      <c r="J29" s="27">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="K29" s="28" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="L29" s="12">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A30" s="34">
-        <f t="shared" si="3"/>
-        <v>29</v>
-      </c>
-      <c r="B30" s="88" t="s">
-        <v>13</v>
-      </c>
-      <c r="C30" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="D30" s="50">
-        <v>1</v>
-      </c>
-      <c r="E30" s="31"/>
-      <c r="F30" s="50"/>
-      <c r="G30" s="48"/>
-      <c r="H30" s="55"/>
-      <c r="I30" s="12">
-        <v>1</v>
-      </c>
-      <c r="J30" s="27">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K30" s="28" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="L30" s="12">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" ht="58" x14ac:dyDescent="0.35">
-      <c r="A31" s="34">
-        <f t="shared" si="3"/>
-        <v>30</v>
-      </c>
-      <c r="B31" s="88" t="s">
-        <v>13</v>
-      </c>
-      <c r="C31" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="D31" s="50"/>
-      <c r="E31" s="31"/>
-      <c r="F31" s="50"/>
-      <c r="G31" s="48"/>
-      <c r="H31" s="55"/>
-      <c r="I31" s="12">
-        <v>1</v>
-      </c>
-      <c r="J31" s="27" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K31" s="28" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="L31" s="12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="A32" s="34">
-        <f t="shared" si="3"/>
-        <v>31</v>
-      </c>
-      <c r="B32" s="88" t="s">
-        <v>13</v>
-      </c>
-      <c r="C32" s="37" t="s">
-        <v>84</v>
-      </c>
-      <c r="D32" s="50"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="50"/>
-      <c r="G32" s="48"/>
-      <c r="H32" s="55"/>
-      <c r="I32" s="12">
-        <v>3</v>
-      </c>
-      <c r="J32" s="27" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K32" s="28" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="L32" s="12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A33" s="34">
-        <f t="shared" si="3"/>
-        <v>32</v>
-      </c>
-      <c r="B33" s="88" t="s">
-        <v>13</v>
-      </c>
-      <c r="C33" s="58" t="s">
-        <v>63</v>
-      </c>
-      <c r="D33" s="50">
-        <v>1</v>
-      </c>
-      <c r="E33" s="30"/>
-      <c r="F33" s="50"/>
-      <c r="G33" s="47"/>
-      <c r="H33" s="54"/>
-      <c r="I33" s="27">
-        <v>1</v>
-      </c>
-      <c r="J33" s="27">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K33" s="28" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="L33" s="27">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A34" s="34">
-        <f t="shared" si="3"/>
-        <v>33</v>
-      </c>
-      <c r="B34" s="88" t="s">
-        <v>13</v>
-      </c>
-      <c r="C34" s="59" t="s">
-        <v>81</v>
-      </c>
-      <c r="D34" s="50">
-        <v>1</v>
-      </c>
-      <c r="E34" s="31"/>
-      <c r="F34" s="50"/>
-      <c r="G34" s="48"/>
-      <c r="H34" s="55"/>
-      <c r="I34" s="12">
-        <v>1</v>
-      </c>
-      <c r="J34" s="27">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K34" s="28" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="L34" s="12">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" ht="189" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="72">
-        <f t="shared" si="3"/>
-        <v>34</v>
-      </c>
-      <c r="B35" s="89" t="s">
-        <v>13</v>
-      </c>
-      <c r="C35" s="74" t="s">
-        <v>73</v>
-      </c>
-      <c r="D35" s="75">
-        <v>1</v>
-      </c>
-      <c r="E35" s="76"/>
-      <c r="F35" s="75"/>
-      <c r="G35" s="77"/>
-      <c r="H35" s="78"/>
-      <c r="I35" s="79">
-        <v>2</v>
-      </c>
-      <c r="J35" s="80">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="K35" s="81" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="L35" s="79">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" ht="87.5" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="71">
-        <f t="shared" si="3"/>
-        <v>35</v>
-      </c>
-      <c r="B36" s="92" t="s">
-        <v>11</v>
-      </c>
-      <c r="C36" s="58" t="s">
-        <v>76</v>
-      </c>
-      <c r="D36" s="50">
-        <v>1</v>
-      </c>
-      <c r="E36" s="30"/>
-      <c r="F36" s="50"/>
-      <c r="G36" s="47"/>
-      <c r="H36" s="54" t="b">
-        <v>1</v>
-      </c>
-      <c r="I36" s="27">
-        <v>4</v>
-      </c>
-      <c r="J36" s="27">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="K36" s="28">
-        <f t="shared" si="1"/>
-        <v>-5</v>
-      </c>
-      <c r="L36" s="27">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A37" s="34">
-        <f t="shared" si="3"/>
-        <v>36</v>
-      </c>
-      <c r="B37" s="93" t="s">
-        <v>11</v>
-      </c>
-      <c r="C37" s="39" t="s">
-        <v>72</v>
-      </c>
-      <c r="D37" s="50">
-        <v>1</v>
-      </c>
-      <c r="E37" s="31"/>
-      <c r="F37" s="50"/>
-      <c r="G37" s="48"/>
-      <c r="H37" s="55"/>
-      <c r="I37" s="12">
-        <v>1</v>
-      </c>
-      <c r="J37" s="27">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K37" s="28" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="L37" s="12">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" ht="87" x14ac:dyDescent="0.35">
-      <c r="A38" s="34">
-        <f t="shared" si="3"/>
-        <v>37</v>
-      </c>
-      <c r="B38" s="93" t="s">
-        <v>11</v>
-      </c>
-      <c r="C38" s="37" t="s">
-        <v>75</v>
-      </c>
-      <c r="D38" s="50">
-        <v>1</v>
-      </c>
-      <c r="E38" s="31"/>
-      <c r="F38" s="50"/>
-      <c r="G38" s="48"/>
-      <c r="H38" s="55" t="b">
-        <v>1</v>
-      </c>
-      <c r="I38" s="12">
-        <v>2</v>
-      </c>
-      <c r="J38" s="27">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="K38" s="28">
-        <f t="shared" si="1"/>
-        <v>-5</v>
-      </c>
-      <c r="L38" s="12">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" ht="87" x14ac:dyDescent="0.35">
-      <c r="A39" s="34">
-        <f t="shared" si="3"/>
-        <v>38</v>
-      </c>
-      <c r="B39" s="93" t="s">
-        <v>11</v>
-      </c>
-      <c r="C39" s="39" t="s">
-        <v>104</v>
-      </c>
-      <c r="D39" s="50"/>
-      <c r="E39" s="31"/>
-      <c r="F39" s="50"/>
-      <c r="G39" s="48"/>
-      <c r="H39" s="55"/>
-      <c r="I39" s="12">
-        <v>5</v>
-      </c>
-      <c r="J39" s="27" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K39" s="28" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="L39" s="12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" ht="348" x14ac:dyDescent="0.35">
-      <c r="A40" s="34">
-        <f t="shared" si="3"/>
-        <v>39</v>
-      </c>
-      <c r="B40" s="93" t="s">
-        <v>11</v>
-      </c>
-      <c r="C40" s="37" t="s">
-        <v>86</v>
-      </c>
-      <c r="D40" s="50"/>
-      <c r="E40" s="31"/>
-      <c r="F40" s="50"/>
-      <c r="G40" s="48"/>
-      <c r="H40" s="55" t="b">
-        <v>1</v>
-      </c>
-      <c r="I40" s="12">
-        <v>3</v>
-      </c>
-      <c r="J40" s="27">
-        <f t="shared" si="0"/>
-        <v>-5</v>
-      </c>
-      <c r="K40" s="28">
-        <f t="shared" si="1"/>
-        <v>-5</v>
-      </c>
-      <c r="L40" s="12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" ht="406" x14ac:dyDescent="0.35">
-      <c r="A41" s="34">
-        <f t="shared" si="3"/>
-        <v>40</v>
-      </c>
-      <c r="B41" s="94" t="s">
-        <v>11</v>
-      </c>
-      <c r="C41" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="D41" s="50"/>
-      <c r="E41" s="32"/>
-      <c r="F41" s="50"/>
-      <c r="G41" s="49"/>
-      <c r="H41" s="56"/>
-      <c r="I41" s="29">
-        <v>5</v>
-      </c>
-      <c r="J41" s="27" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K41" s="28" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="L41" s="12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="72">
-        <f t="shared" si="3"/>
-        <v>41</v>
-      </c>
-      <c r="B42" s="95" t="s">
-        <v>11</v>
-      </c>
-      <c r="C42" s="74" t="s">
-        <v>64</v>
-      </c>
-      <c r="D42" s="75">
-        <v>1</v>
-      </c>
-      <c r="E42" s="76"/>
-      <c r="F42" s="75"/>
-      <c r="G42" s="77"/>
-      <c r="H42" s="78"/>
-      <c r="I42" s="79">
-        <v>2</v>
-      </c>
-      <c r="J42" s="80">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="K42" s="81" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="L42" s="79">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" ht="73" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="71">
-        <f t="shared" si="3"/>
-        <v>42</v>
-      </c>
-      <c r="B43" s="90" t="s">
-        <v>28</v>
-      </c>
-      <c r="C43" s="58" t="s">
-        <v>27</v>
-      </c>
-      <c r="D43" s="50">
-        <v>1</v>
-      </c>
-      <c r="E43" s="30"/>
-      <c r="F43" s="50"/>
-      <c r="G43" s="47"/>
-      <c r="H43" s="54" t="b">
-        <v>1</v>
-      </c>
-      <c r="I43" s="27">
-        <v>2</v>
-      </c>
-      <c r="J43" s="27">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="K43" s="28">
-        <f t="shared" si="1"/>
-        <v>-5</v>
-      </c>
-      <c r="L43" s="27">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A44" s="34">
-        <f t="shared" si="3"/>
-        <v>43</v>
-      </c>
-      <c r="B44" s="91" t="s">
-        <v>28</v>
-      </c>
-      <c r="C44" s="37" t="s">
-        <v>94</v>
-      </c>
-      <c r="D44" s="50">
-        <v>1</v>
-      </c>
-      <c r="E44" s="31"/>
-      <c r="F44" s="50"/>
-      <c r="G44" s="48"/>
-      <c r="H44" s="55" t="b">
-        <v>1</v>
-      </c>
-      <c r="I44" s="12">
-        <v>2</v>
-      </c>
-      <c r="J44" s="27">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="K44" s="28">
-        <f t="shared" si="1"/>
-        <v>-5</v>
-      </c>
-      <c r="L44" s="12">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" ht="174" x14ac:dyDescent="0.35">
-      <c r="A45" s="34">
-        <f t="shared" si="3"/>
-        <v>44</v>
-      </c>
-      <c r="B45" s="91" t="s">
-        <v>28</v>
-      </c>
-      <c r="C45" s="37" t="s">
-        <v>105</v>
-      </c>
-      <c r="D45" s="50">
-        <v>1</v>
-      </c>
-      <c r="E45" s="31"/>
-      <c r="F45" s="50"/>
-      <c r="G45" s="48"/>
-      <c r="H45" s="55" t="b">
-        <v>1</v>
-      </c>
-      <c r="I45" s="12">
-        <v>2</v>
-      </c>
-      <c r="J45" s="27">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="K45" s="28">
-        <f t="shared" si="1"/>
-        <v>-5</v>
-      </c>
-      <c r="L45" s="12">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" ht="87" x14ac:dyDescent="0.35">
-      <c r="A46" s="34">
-        <f t="shared" si="3"/>
-        <v>45</v>
-      </c>
-      <c r="B46" s="91" t="s">
-        <v>28</v>
-      </c>
-      <c r="C46" s="37" t="s">
-        <v>93</v>
-      </c>
-      <c r="D46" s="50">
-        <v>1</v>
-      </c>
-      <c r="E46" s="31"/>
-      <c r="F46" s="50"/>
-      <c r="G46" s="60"/>
-      <c r="H46" s="55" t="b">
-        <v>1</v>
-      </c>
-      <c r="I46" s="12">
-        <v>3</v>
-      </c>
-      <c r="J46" s="27">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="K46" s="28">
-        <f t="shared" si="1"/>
-        <v>-5</v>
-      </c>
-      <c r="L46" s="12">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" ht="87" x14ac:dyDescent="0.35">
-      <c r="A47" s="34">
-        <f t="shared" si="3"/>
-        <v>46</v>
-      </c>
-      <c r="B47" s="91" t="s">
-        <v>28</v>
-      </c>
-      <c r="C47" s="37" t="s">
-        <v>92</v>
-      </c>
-      <c r="D47" s="50">
-        <v>1</v>
-      </c>
-      <c r="E47" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="F47" s="50"/>
-      <c r="G47" s="60"/>
-      <c r="H47" s="55" t="b">
-        <v>1</v>
-      </c>
-      <c r="I47" s="12">
-        <v>1</v>
-      </c>
-      <c r="J47" s="27">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K47" s="28">
-        <f t="shared" si="1"/>
-        <v>-5</v>
-      </c>
-      <c r="L47" s="12">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" ht="261" x14ac:dyDescent="0.35">
-      <c r="A48" s="34">
-        <f t="shared" si="3"/>
-        <v>47</v>
-      </c>
-      <c r="B48" s="91" t="s">
-        <v>28</v>
-      </c>
-      <c r="C48" s="37" t="s">
-        <v>83</v>
-      </c>
-      <c r="D48" s="50">
-        <v>1</v>
-      </c>
-      <c r="E48" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="F48" s="50"/>
-      <c r="G48" s="60"/>
-      <c r="H48" s="55" t="b">
-        <v>1</v>
-      </c>
-      <c r="I48" s="12">
-        <v>3</v>
-      </c>
-      <c r="J48" s="27">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="K48" s="28">
-        <f t="shared" si="1"/>
-        <v>-5</v>
-      </c>
-      <c r="L48" s="12">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="C2:C48">
-    <cfRule type="expression" dxfId="2" priority="2" stopIfTrue="1">
-      <formula>H2=TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D1:D48 F1:F48">
-    <cfRule type="cellIs" dxfId="1" priority="3" stopIfTrue="1" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D48 F2:F48">
-    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="notEqual">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D48" xr:uid="{CF2E138B-8C14-4940-BECA-F7D16847485D}">
-      <formula1>"1,0"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11AA35B6-AD65-4088-A985-9959341357D7}">
   <sheetPr codeName="Munka7"/>
   <dimension ref="A1:AC48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
@@ -7648,7 +5882,7 @@
     <row r="1" spans="1:29" ht="23" x14ac:dyDescent="0.5">
       <c r="A1" s="1"/>
       <c r="B1" s="126" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C1" s="126"/>
       <c r="D1" s="127"/>
@@ -7724,18 +5958,18 @@
       </c>
       <c r="C3" s="3">
         <f>COUNTIFS(Irányelvek!B2:B48,"="&amp;B3,Irányelvek!D2:D48,1)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D3" s="3">
         <f t="shared" ref="D3:D7" si="0">E3-C3</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E3" s="64">
         <v>8</v>
       </c>
       <c r="F3" s="9">
         <f>C3/E3</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -7768,18 +6002,18 @@
       </c>
       <c r="C4" s="3">
         <f>COUNTIFS(Irányelvek!B3:B49,"="&amp;B4,Irányelvek!D3:D49,1)</f>
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D4" s="3">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E4" s="64">
         <v>17</v>
       </c>
       <c r="F4" s="9">
         <f t="shared" ref="F4:F8" si="1">C4/E4</f>
-        <v>0.6470588235294118</v>
+        <v>0.94117647058823528</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -7812,18 +6046,18 @@
       </c>
       <c r="C5" s="3">
         <f>COUNTIFS(Irányelvek!B4:B50,"="&amp;B5,Irányelvek!D4:D50,1)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D5" s="3">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E5" s="64">
         <v>9</v>
       </c>
       <c r="F5" s="9">
         <f t="shared" si="1"/>
-        <v>0.77777777777777779</v>
+        <v>0.88888888888888884</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -7896,7 +6130,7 @@
     <row r="7" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C7" s="3">
         <f>COUNTIFS(Irányelvek!B6:B52,"="&amp;B7,Irányelvek!D6:D52,1)</f>
@@ -7944,11 +6178,11 @@
       </c>
       <c r="C8" s="7">
         <f>SUM(C3:C7)</f>
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D8" s="7">
         <f>SUM(D3:D7)</f>
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E8" s="7">
         <f>SUM(E3:E7)</f>
@@ -7956,7 +6190,7 @@
       </c>
       <c r="F8" s="9">
         <f t="shared" si="1"/>
-        <v>0.68085106382978722</v>
+        <v>0.8936170212765957</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -9229,7 +7463,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DB8B864-1506-4CF9-B958-BB790343B9E4}">
   <sheetPr codeName="Munka5"/>
   <dimension ref="A1:AC48"/>
@@ -9250,7 +7484,7 @@
     <row r="1" spans="1:29" ht="23" x14ac:dyDescent="0.5">
       <c r="A1" s="1"/>
       <c r="B1" s="126" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C1" s="126"/>
       <c r="D1" s="127"/>
@@ -9499,7 +7733,7 @@
     <row r="7" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C7" s="3">
         <f>COUNTIFS(Irányelvek!B6:B52,"="&amp;B7,Irányelvek!F6:F52,1)</f>
@@ -10832,7 +9066,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45D9B84B-22C0-4822-8F64-548DFDA8DDBC}">
   <sheetPr codeName="Munka6"/>
   <dimension ref="A1:J19"/>
@@ -10853,7 +9087,7 @@
   <sheetData>
     <row r="1" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B1" s="22" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C1" s="23"/>
       <c r="D1" s="23"/>
@@ -10874,7 +9108,7 @@
         <v>-100</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H3">
         <v>56</v>
@@ -10896,7 +9130,7 @@
         <v>50</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H4">
         <f>H3/2</f>
@@ -10912,7 +9146,7 @@
         <v>63</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.35">
@@ -10924,7 +9158,7 @@
         <v>76</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
@@ -10936,7 +9170,7 @@
         <v>89</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.35">

--- a/WebAlap/webfejlesztes_iranyelvek_v2024252_v2.xlsx
+++ b/WebAlap/webfejlesztes_iranyelvek_v2024252_v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PatrikITWorkSpace\Elte_24_25_2\WebAlap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B888FDCA-3043-46E1-8FF7-AC6CC5133D83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F61EDA7-C1E3-416D-B283-DF3237A915A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{1BD8638E-000E-4472-8AE1-C32ECD41C6A4}"/>
+    <workbookView xWindow="20" yWindow="20" windowWidth="25580" windowHeight="15260" activeTab="1" xr2:uid="{1BD8638E-000E-4472-8AE1-C32ECD41C6A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Fedőlap" sheetId="2" r:id="rId1"/>
@@ -1500,6 +1500,40 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -1507,9 +1541,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1526,9 +1557,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1559,34 +1587,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1786,13 +1786,13 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.94117647058823528</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.88888888888888884</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.5714285714285714</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1</c:v>
@@ -2109,13 +2109,13 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>6</c:v>
@@ -2216,13 +2216,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -3590,7 +3590,7 @@
   <sheetPr codeName="Munka1"/>
   <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
@@ -3612,15 +3612,15 @@
   <sheetData>
     <row r="1" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="66"/>
-      <c r="B1" s="117" t="s">
+      <c r="B1" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="C1" s="117"/>
-      <c r="D1" s="117"/>
-      <c r="E1" s="117"/>
-      <c r="F1" s="117"/>
-      <c r="G1" s="117"/>
-      <c r="H1" s="117"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
       <c r="I1" s="66"/>
       <c r="J1" s="68" t="s">
         <v>99</v>
@@ -3631,12 +3631,12 @@
       <c r="B2" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="119"/>
-      <c r="D2" s="120"/>
-      <c r="E2" s="120"/>
-      <c r="F2" s="120"/>
-      <c r="G2" s="120"/>
-      <c r="H2" s="120"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
       <c r="I2" s="65"/>
     </row>
     <row r="3" spans="1:10" ht="23.5" x14ac:dyDescent="0.55000000000000004">
@@ -3644,12 +3644,12 @@
       <c r="B3" s="96" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="119"/>
-      <c r="D3" s="120"/>
-      <c r="E3" s="120"/>
-      <c r="F3" s="120"/>
-      <c r="G3" s="120"/>
-      <c r="H3" s="120"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
       <c r="I3" s="65"/>
     </row>
     <row r="4" spans="1:10" ht="23.5" x14ac:dyDescent="0.55000000000000004">
@@ -3657,52 +3657,52 @@
       <c r="B4" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="119"/>
-      <c r="D4" s="120"/>
-      <c r="E4" s="120"/>
-      <c r="F4" s="120"/>
-      <c r="G4" s="120"/>
-      <c r="H4" s="120"/>
+      <c r="C4" s="101"/>
+      <c r="D4" s="102"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="102"/>
+      <c r="G4" s="102"/>
+      <c r="H4" s="102"/>
       <c r="I4" s="65"/>
     </row>
     <row r="5" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="65"/>
-      <c r="B5" s="123" t="s">
+      <c r="B5" s="105" t="s">
         <v>86</v>
       </c>
-      <c r="C5" s="123"/>
-      <c r="D5" s="123"/>
-      <c r="E5" s="123"/>
-      <c r="F5" s="123"/>
-      <c r="G5" s="123"/>
-      <c r="H5" s="123"/>
+      <c r="C5" s="105"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="105"/>
+      <c r="F5" s="105"/>
+      <c r="G5" s="105"/>
+      <c r="H5" s="105"/>
       <c r="I5" s="65"/>
     </row>
     <row r="6" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="65"/>
-      <c r="B6" s="100" t="s">
+      <c r="B6" s="110" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="101"/>
-      <c r="D6" s="101"/>
-      <c r="E6" s="101"/>
-      <c r="F6" s="101"/>
-      <c r="G6" s="101"/>
-      <c r="H6" s="101"/>
+      <c r="C6" s="111"/>
+      <c r="D6" s="111"/>
+      <c r="E6" s="111"/>
+      <c r="F6" s="111"/>
+      <c r="G6" s="111"/>
+      <c r="H6" s="111"/>
       <c r="I6" s="65"/>
     </row>
     <row r="7" spans="1:10" ht="61.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="65"/>
-      <c r="B7" s="102" t="str">
+      <c r="B7" s="112" t="str">
         <f>CONCATENATE("Az irányelvek között vannak kiemelt (sárga háttérszínnel és félkövér kiemeléssel jelölt) elvek , amelyek betartására kiemelten figyelni kell! Az elégséges szinthez legalább ",D12," pontot el kell érni. A hallgatói és tutori értékelés tekintetében, maximum 15 darab irányelvben lehet eltérés, ennél több esetén már nem tudjuk elfogadni a feladatot.")</f>
         <v>Az irányelvek között vannak kiemelt (sárga háttérszínnel és félkövér kiemeléssel jelölt) elvek , amelyek betartására kiemelten figyelni kell! Az elégséges szinthez legalább 50 pontot el kell érni. A hallgatói és tutori értékelés tekintetében, maximum 15 darab irányelvben lehet eltérés, ennél több esetén már nem tudjuk elfogadni a feladatot.</v>
       </c>
-      <c r="C7" s="103"/>
-      <c r="D7" s="103"/>
-      <c r="E7" s="103"/>
-      <c r="F7" s="103"/>
-      <c r="G7" s="103"/>
-      <c r="H7" s="103"/>
+      <c r="C7" s="113"/>
+      <c r="D7" s="113"/>
+      <c r="E7" s="113"/>
+      <c r="F7" s="113"/>
+      <c r="G7" s="113"/>
+      <c r="H7" s="113"/>
       <c r="I7" s="65"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
@@ -3740,11 +3740,11 @@
         <v>47</v>
       </c>
       <c r="E10" s="1"/>
-      <c r="F10" s="121" t="s">
+      <c r="F10" s="103" t="s">
         <v>93</v>
       </c>
-      <c r="G10" s="121"/>
-      <c r="H10" s="121"/>
+      <c r="G10" s="103"/>
+      <c r="H10" s="103"/>
       <c r="I10" s="65"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
@@ -3758,9 +3758,9 @@
         <v>100</v>
       </c>
       <c r="E11" s="1"/>
-      <c r="F11" s="122"/>
-      <c r="G11" s="122"/>
-      <c r="H11" s="122"/>
+      <c r="F11" s="104"/>
+      <c r="G11" s="104"/>
+      <c r="H11" s="104"/>
       <c r="I11" s="65"/>
     </row>
     <row r="12" spans="1:10" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -3773,9 +3773,9 @@
         <v>50</v>
       </c>
       <c r="E12" s="1"/>
-      <c r="F12" s="122"/>
-      <c r="G12" s="122"/>
-      <c r="H12" s="122"/>
+      <c r="F12" s="104"/>
+      <c r="G12" s="104"/>
+      <c r="H12" s="104"/>
       <c r="I12" s="65"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
@@ -3799,7 +3799,7 @@
       <c r="C14" s="99"/>
       <c r="D14" s="42" t="b">
         <f>IF(COUNTIFS(Irányelvek!D2:D48,"=1",Irányelvek!H2:H48,"=igaz")=19,TRUE,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -3815,15 +3815,15 @@
       <c r="C15" s="99"/>
       <c r="D15" s="43">
         <f>SUM(Irányelvek!J2:J48)</f>
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="E15" s="1"/>
-      <c r="F15" s="106" t="str">
+      <c r="F15" s="100" t="str">
         <f>CONCATENATE("Ha a feladatot önállóan értékelnénk, akkor az önértékelésed alapján ",VLOOKUP(D15,Ponthatárok!$C$3:$D$7,2,TRUE), "  érdemjegyet kapnál rá.")</f>
-        <v>Ha a feladatot önállóan értékelnénk, akkor az önértékelésed alapján jó  érdemjegyet kapnál rá.</v>
-      </c>
-      <c r="G15" s="106"/>
-      <c r="H15" s="106"/>
+        <v>Ha a feladatot önállóan értékelnénk, akkor az önértékelésed alapján jeles  érdemjegyet kapnál rá.</v>
+      </c>
+      <c r="G15" s="100"/>
+      <c r="H15" s="100"/>
       <c r="I15" s="65"/>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -3850,11 +3850,11 @@
         <v>Még nincs adat.</v>
       </c>
       <c r="E17" s="1"/>
-      <c r="F17" s="108" t="s">
+      <c r="F17" s="117" t="s">
         <v>42</v>
       </c>
-      <c r="G17" s="109"/>
-      <c r="H17" s="110"/>
+      <c r="G17" s="118"/>
+      <c r="H17" s="119"/>
       <c r="I17" s="65"/>
     </row>
     <row r="18" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -3868,9 +3868,9 @@
         <v>Még nincs adat.</v>
       </c>
       <c r="E18" s="1"/>
-      <c r="F18" s="111"/>
-      <c r="G18" s="112"/>
-      <c r="H18" s="113"/>
+      <c r="F18" s="120"/>
+      <c r="G18" s="121"/>
+      <c r="H18" s="122"/>
       <c r="I18" s="65"/>
     </row>
     <row r="19" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -3884,9 +3884,9 @@
         <v>Még nincs adat.</v>
       </c>
       <c r="E19" s="1"/>
-      <c r="F19" s="114"/>
-      <c r="G19" s="115"/>
-      <c r="H19" s="116"/>
+      <c r="F19" s="123"/>
+      <c r="G19" s="124"/>
+      <c r="H19" s="125"/>
       <c r="I19" s="65"/>
     </row>
     <row r="20" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
@@ -3912,11 +3912,11 @@
         <v>20</v>
       </c>
       <c r="E21" s="1"/>
-      <c r="F21" s="106" t="s">
+      <c r="F21" s="100" t="s">
         <v>42</v>
       </c>
-      <c r="G21" s="107"/>
-      <c r="H21" s="107"/>
+      <c r="G21" s="116"/>
+      <c r="H21" s="116"/>
       <c r="I21" s="65"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
@@ -3929,25 +3929,25 @@
         <v>10</v>
       </c>
       <c r="E22" s="1"/>
-      <c r="F22" s="107"/>
-      <c r="G22" s="107"/>
-      <c r="H22" s="107"/>
+      <c r="F22" s="116"/>
+      <c r="G22" s="116"/>
+      <c r="H22" s="116"/>
       <c r="I22" s="65"/>
     </row>
     <row r="23" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="65"/>
-      <c r="B23" s="104" t="s">
+      <c r="B23" s="114" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="105"/>
+      <c r="C23" s="115"/>
       <c r="D23" s="44" t="str">
         <f>IF(D26=TRUE,SUM(Irányelvek!L2:L48),"Még nincs adat.")</f>
         <v>Még nincs adat.</v>
       </c>
       <c r="E23" s="1"/>
-      <c r="F23" s="107"/>
-      <c r="G23" s="107"/>
-      <c r="H23" s="107"/>
+      <c r="F23" s="116"/>
+      <c r="G23" s="116"/>
+      <c r="H23" s="116"/>
       <c r="I23" s="65"/>
     </row>
     <row r="24" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -3961,9 +3961,9 @@
         <v>Még nincs adat.</v>
       </c>
       <c r="E24" s="1"/>
-      <c r="F24" s="107"/>
-      <c r="G24" s="107"/>
-      <c r="H24" s="107"/>
+      <c r="F24" s="116"/>
+      <c r="G24" s="116"/>
+      <c r="H24" s="116"/>
       <c r="I24" s="65"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
@@ -3979,10 +3979,10 @@
     </row>
     <row r="26" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="65"/>
-      <c r="B26" s="98" t="s">
+      <c r="B26" s="109" t="s">
         <v>51</v>
       </c>
-      <c r="C26" s="98"/>
+      <c r="C26" s="109"/>
       <c r="D26" s="45" t="b">
         <v>0</v>
       </c>
@@ -3994,10 +3994,10 @@
     </row>
     <row r="27" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="65"/>
-      <c r="B27" s="124" t="s">
+      <c r="B27" s="106" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="125"/>
+      <c r="C27" s="107"/>
       <c r="D27" s="45"/>
       <c r="E27" s="46"/>
       <c r="F27" s="46"/>
@@ -4007,10 +4007,10 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="65"/>
-      <c r="B28" s="118" t="s">
+      <c r="B28" s="98" t="s">
         <v>27</v>
       </c>
-      <c r="C28" s="118"/>
+      <c r="C28" s="98"/>
       <c r="D28" s="46"/>
       <c r="E28" s="46"/>
       <c r="F28" s="46"/>
@@ -4020,13 +4020,13 @@
     </row>
     <row r="29" spans="1:9" ht="105" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="65"/>
-      <c r="B29" s="97"/>
-      <c r="C29" s="97"/>
-      <c r="D29" s="97"/>
-      <c r="E29" s="97"/>
-      <c r="F29" s="97"/>
-      <c r="G29" s="97"/>
-      <c r="H29" s="97"/>
+      <c r="B29" s="108"/>
+      <c r="C29" s="108"/>
+      <c r="D29" s="108"/>
+      <c r="E29" s="108"/>
+      <c r="F29" s="108"/>
+      <c r="G29" s="108"/>
+      <c r="H29" s="108"/>
       <c r="I29" s="65"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
@@ -4043,6 +4043,17 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="Mz7EfEDe6v8cDUz4TxEHDWHiqsbUlOKtpPmMASCpJrCgqIKcchwB59qyedMGM9nhDxctmLUFNc/7+3pzDxMfOQ==" saltValue="ufiuVYYMa4lem5kpeJ7gNw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="27">
+    <mergeCell ref="B29:H29"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B6:H6"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="F21:H24"/>
+    <mergeCell ref="F17:H19"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="B12:C12"/>
@@ -4059,17 +4070,6 @@
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B29:H29"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B6:H6"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="F21:H24"/>
-    <mergeCell ref="F17:H19"/>
   </mergeCells>
   <conditionalFormatting sqref="D15">
     <cfRule type="expression" dxfId="5" priority="2" stopIfTrue="1">
@@ -4131,8 +4131,8 @@
   <dimension ref="A1:N48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H40" sqref="H40"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4838,7 +4838,7 @@
         <v>96</v>
       </c>
       <c r="D20" s="50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" s="31"/>
       <c r="F20" s="50"/>
@@ -4847,9 +4847,9 @@
       <c r="I20" s="12">
         <v>3</v>
       </c>
-      <c r="J20" s="27" t="str">
+      <c r="J20" s="27">
         <f t="shared" si="0"/>
-        <v/>
+        <v>3</v>
       </c>
       <c r="K20" s="28" t="str">
         <f t="shared" si="1"/>
@@ -4857,7 +4857,7 @@
       </c>
       <c r="L20" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
@@ -5246,7 +5246,7 @@
         <v>82</v>
       </c>
       <c r="D32" s="50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" s="31"/>
       <c r="F32" s="50"/>
@@ -5255,9 +5255,9 @@
       <c r="I32" s="12">
         <v>3</v>
       </c>
-      <c r="J32" s="27" t="str">
+      <c r="J32" s="27">
         <f t="shared" si="0"/>
-        <v/>
+        <v>3</v>
       </c>
       <c r="K32" s="28" t="str">
         <f t="shared" si="1"/>
@@ -5265,7 +5265,7 @@
       </c>
       <c r="L32" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="29" x14ac:dyDescent="0.35">
@@ -5488,7 +5488,7 @@
         <v>102</v>
       </c>
       <c r="D39" s="50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E39" s="31"/>
       <c r="F39" s="50"/>
@@ -5497,9 +5497,9 @@
       <c r="I39" s="12">
         <v>5</v>
       </c>
-      <c r="J39" s="27" t="str">
+      <c r="J39" s="27">
         <f t="shared" si="0"/>
-        <v/>
+        <v>5</v>
       </c>
       <c r="K39" s="28" t="str">
         <f t="shared" si="1"/>
@@ -5507,7 +5507,7 @@
       </c>
       <c r="L39" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="137.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -5522,7 +5522,7 @@
         <v>84</v>
       </c>
       <c r="D40" s="50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E40" s="31"/>
       <c r="F40" s="50"/>
@@ -5535,7 +5535,7 @@
       </c>
       <c r="J40" s="27">
         <f t="shared" si="0"/>
-        <v>-5</v>
+        <v>3</v>
       </c>
       <c r="K40" s="28">
         <f t="shared" si="1"/>
@@ -5543,7 +5543,7 @@
       </c>
       <c r="L40" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="159" customHeight="1" x14ac:dyDescent="0.35">
@@ -5558,7 +5558,7 @@
         <v>89</v>
       </c>
       <c r="D41" s="50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E41" s="32"/>
       <c r="F41" s="50"/>
@@ -5567,9 +5567,9 @@
       <c r="I41" s="29">
         <v>5</v>
       </c>
-      <c r="J41" s="27" t="str">
+      <c r="J41" s="27">
         <f t="shared" si="0"/>
-        <v/>
+        <v>5</v>
       </c>
       <c r="K41" s="28" t="str">
         <f t="shared" si="1"/>
@@ -5577,7 +5577,7 @@
       </c>
       <c r="L41" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:12" s="83" customFormat="1" ht="44" thickBot="1" x14ac:dyDescent="0.4">
@@ -6002,18 +6002,18 @@
       </c>
       <c r="C4" s="3">
         <f>COUNTIFS(Irányelvek!B3:B49,"="&amp;B4,Irányelvek!D3:D49,1)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D4" s="3">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" s="64">
         <v>17</v>
       </c>
       <c r="F4" s="9">
         <f t="shared" ref="F4:F8" si="1">C4/E4</f>
-        <v>0.94117647058823528</v>
+        <v>1</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -6046,18 +6046,18 @@
       </c>
       <c r="C5" s="3">
         <f>COUNTIFS(Irányelvek!B4:B50,"="&amp;B5,Irányelvek!D4:D50,1)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" s="3">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" s="64">
         <v>9</v>
       </c>
       <c r="F5" s="9">
         <f t="shared" si="1"/>
-        <v>0.88888888888888884</v>
+        <v>1</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -6090,18 +6090,18 @@
       </c>
       <c r="C6" s="3">
         <f>COUNTIFS(Irányelvek!B5:B51,"="&amp;B6,Irányelvek!D5:D51,1)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D6" s="3">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E6" s="64">
         <v>7</v>
       </c>
       <c r="F6" s="9">
         <f t="shared" si="1"/>
-        <v>0.5714285714285714</v>
+        <v>1</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -6178,11 +6178,11 @@
       </c>
       <c r="C8" s="7">
         <f>SUM(C3:C7)</f>
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D8" s="7">
         <f>SUM(D3:D7)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E8" s="7">
         <f>SUM(E3:E7)</f>
@@ -6190,7 +6190,7 @@
       </c>
       <c r="F8" s="9">
         <f t="shared" si="1"/>
-        <v>0.8936170212765957</v>
+        <v>1</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>

--- a/WebAlap/webfejlesztes_iranyelvek_v2024252_v2.xlsx
+++ b/WebAlap/webfejlesztes_iranyelvek_v2024252_v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PatrikITWorkSpace\Elte_24_25_2\WebAlap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F61EDA7-C1E3-416D-B283-DF3237A915A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCC6F829-A969-4277-8012-2045B2D7FFC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="20" windowWidth="25580" windowHeight="15260" activeTab="1" xr2:uid="{1BD8638E-000E-4472-8AE1-C32ECD41C6A4}"/>
+    <workbookView xWindow="20" yWindow="20" windowWidth="25580" windowHeight="15260" xr2:uid="{1BD8638E-000E-4472-8AE1-C32ECD41C6A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Fedőlap" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="111">
   <si>
     <t>Neved:</t>
   </si>
@@ -614,6 +614,15 @@
   </si>
   <si>
     <t>Mind</t>
+  </si>
+  <si>
+    <t>Bartók Patrik Róbert</t>
+  </si>
+  <si>
+    <t>MNDJ3P</t>
+  </si>
+  <si>
+    <t>mndj3p@inf.elte.hu, bartokpatrikrobert@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -1500,40 +1509,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -1541,6 +1516,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1557,6 +1535,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1587,6 +1568,34 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3590,8 +3599,8 @@
   <sheetPr codeName="Munka1"/>
   <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3612,15 +3621,15 @@
   <sheetData>
     <row r="1" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="66"/>
-      <c r="B1" s="97" t="s">
+      <c r="B1" s="117" t="s">
         <v>104</v>
       </c>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
+      <c r="H1" s="117"/>
       <c r="I1" s="66"/>
       <c r="J1" s="68" t="s">
         <v>99</v>
@@ -3631,12 +3640,14 @@
       <c r="B2" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="101"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="102"/>
+      <c r="C2" s="119" t="s">
+        <v>108</v>
+      </c>
+      <c r="D2" s="120"/>
+      <c r="E2" s="120"/>
+      <c r="F2" s="120"/>
+      <c r="G2" s="120"/>
+      <c r="H2" s="120"/>
       <c r="I2" s="65"/>
     </row>
     <row r="3" spans="1:10" ht="23.5" x14ac:dyDescent="0.55000000000000004">
@@ -3644,12 +3655,14 @@
       <c r="B3" s="96" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="101"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="102"/>
-      <c r="F3" s="102"/>
-      <c r="G3" s="102"/>
-      <c r="H3" s="102"/>
+      <c r="C3" s="119" t="s">
+        <v>109</v>
+      </c>
+      <c r="D3" s="120"/>
+      <c r="E3" s="120"/>
+      <c r="F3" s="120"/>
+      <c r="G3" s="120"/>
+      <c r="H3" s="120"/>
       <c r="I3" s="65"/>
     </row>
     <row r="4" spans="1:10" ht="23.5" x14ac:dyDescent="0.55000000000000004">
@@ -3657,52 +3670,54 @@
       <c r="B4" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="101"/>
-      <c r="D4" s="102"/>
-      <c r="E4" s="102"/>
-      <c r="F4" s="102"/>
-      <c r="G4" s="102"/>
-      <c r="H4" s="102"/>
+      <c r="C4" s="119" t="s">
+        <v>110</v>
+      </c>
+      <c r="D4" s="120"/>
+      <c r="E4" s="120"/>
+      <c r="F4" s="120"/>
+      <c r="G4" s="120"/>
+      <c r="H4" s="120"/>
       <c r="I4" s="65"/>
     </row>
     <row r="5" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="65"/>
-      <c r="B5" s="105" t="s">
+      <c r="B5" s="123" t="s">
         <v>86</v>
       </c>
-      <c r="C5" s="105"/>
-      <c r="D5" s="105"/>
-      <c r="E5" s="105"/>
-      <c r="F5" s="105"/>
-      <c r="G5" s="105"/>
-      <c r="H5" s="105"/>
+      <c r="C5" s="123"/>
+      <c r="D5" s="123"/>
+      <c r="E5" s="123"/>
+      <c r="F5" s="123"/>
+      <c r="G5" s="123"/>
+      <c r="H5" s="123"/>
       <c r="I5" s="65"/>
     </row>
     <row r="6" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="65"/>
-      <c r="B6" s="110" t="s">
+      <c r="B6" s="100" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="111"/>
-      <c r="D6" s="111"/>
-      <c r="E6" s="111"/>
-      <c r="F6" s="111"/>
-      <c r="G6" s="111"/>
-      <c r="H6" s="111"/>
+      <c r="C6" s="101"/>
+      <c r="D6" s="101"/>
+      <c r="E6" s="101"/>
+      <c r="F6" s="101"/>
+      <c r="G6" s="101"/>
+      <c r="H6" s="101"/>
       <c r="I6" s="65"/>
     </row>
     <row r="7" spans="1:10" ht="61.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="65"/>
-      <c r="B7" s="112" t="str">
+      <c r="B7" s="102" t="str">
         <f>CONCATENATE("Az irányelvek között vannak kiemelt (sárga háttérszínnel és félkövér kiemeléssel jelölt) elvek , amelyek betartására kiemelten figyelni kell! Az elégséges szinthez legalább ",D12," pontot el kell érni. A hallgatói és tutori értékelés tekintetében, maximum 15 darab irányelvben lehet eltérés, ennél több esetén már nem tudjuk elfogadni a feladatot.")</f>
         <v>Az irányelvek között vannak kiemelt (sárga háttérszínnel és félkövér kiemeléssel jelölt) elvek , amelyek betartására kiemelten figyelni kell! Az elégséges szinthez legalább 50 pontot el kell érni. A hallgatói és tutori értékelés tekintetében, maximum 15 darab irányelvben lehet eltérés, ennél több esetén már nem tudjuk elfogadni a feladatot.</v>
       </c>
-      <c r="C7" s="113"/>
-      <c r="D7" s="113"/>
-      <c r="E7" s="113"/>
-      <c r="F7" s="113"/>
-      <c r="G7" s="113"/>
-      <c r="H7" s="113"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="103"/>
+      <c r="H7" s="103"/>
       <c r="I7" s="65"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
@@ -3740,11 +3755,11 @@
         <v>47</v>
       </c>
       <c r="E10" s="1"/>
-      <c r="F10" s="103" t="s">
+      <c r="F10" s="121" t="s">
         <v>93</v>
       </c>
-      <c r="G10" s="103"/>
-      <c r="H10" s="103"/>
+      <c r="G10" s="121"/>
+      <c r="H10" s="121"/>
       <c r="I10" s="65"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
@@ -3758,9 +3773,9 @@
         <v>100</v>
       </c>
       <c r="E11" s="1"/>
-      <c r="F11" s="104"/>
-      <c r="G11" s="104"/>
-      <c r="H11" s="104"/>
+      <c r="F11" s="122"/>
+      <c r="G11" s="122"/>
+      <c r="H11" s="122"/>
       <c r="I11" s="65"/>
     </row>
     <row r="12" spans="1:10" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -3773,9 +3788,9 @@
         <v>50</v>
       </c>
       <c r="E12" s="1"/>
-      <c r="F12" s="104"/>
-      <c r="G12" s="104"/>
-      <c r="H12" s="104"/>
+      <c r="F12" s="122"/>
+      <c r="G12" s="122"/>
+      <c r="H12" s="122"/>
       <c r="I12" s="65"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
@@ -3818,12 +3833,12 @@
         <v>100</v>
       </c>
       <c r="E15" s="1"/>
-      <c r="F15" s="100" t="str">
+      <c r="F15" s="106" t="str">
         <f>CONCATENATE("Ha a feladatot önállóan értékelnénk, akkor az önértékelésed alapján ",VLOOKUP(D15,Ponthatárok!$C$3:$D$7,2,TRUE), "  érdemjegyet kapnál rá.")</f>
         <v>Ha a feladatot önállóan értékelnénk, akkor az önértékelésed alapján jeles  érdemjegyet kapnál rá.</v>
       </c>
-      <c r="G15" s="100"/>
-      <c r="H15" s="100"/>
+      <c r="G15" s="106"/>
+      <c r="H15" s="106"/>
       <c r="I15" s="65"/>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -3850,11 +3865,11 @@
         <v>Még nincs adat.</v>
       </c>
       <c r="E17" s="1"/>
-      <c r="F17" s="117" t="s">
+      <c r="F17" s="108" t="s">
         <v>42</v>
       </c>
-      <c r="G17" s="118"/>
-      <c r="H17" s="119"/>
+      <c r="G17" s="109"/>
+      <c r="H17" s="110"/>
       <c r="I17" s="65"/>
     </row>
     <row r="18" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -3868,9 +3883,9 @@
         <v>Még nincs adat.</v>
       </c>
       <c r="E18" s="1"/>
-      <c r="F18" s="120"/>
-      <c r="G18" s="121"/>
-      <c r="H18" s="122"/>
+      <c r="F18" s="111"/>
+      <c r="G18" s="112"/>
+      <c r="H18" s="113"/>
       <c r="I18" s="65"/>
     </row>
     <row r="19" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -3884,9 +3899,9 @@
         <v>Még nincs adat.</v>
       </c>
       <c r="E19" s="1"/>
-      <c r="F19" s="123"/>
-      <c r="G19" s="124"/>
-      <c r="H19" s="125"/>
+      <c r="F19" s="114"/>
+      <c r="G19" s="115"/>
+      <c r="H19" s="116"/>
       <c r="I19" s="65"/>
     </row>
     <row r="20" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
@@ -3912,11 +3927,11 @@
         <v>20</v>
       </c>
       <c r="E21" s="1"/>
-      <c r="F21" s="100" t="s">
+      <c r="F21" s="106" t="s">
         <v>42</v>
       </c>
-      <c r="G21" s="116"/>
-      <c r="H21" s="116"/>
+      <c r="G21" s="107"/>
+      <c r="H21" s="107"/>
       <c r="I21" s="65"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
@@ -3929,25 +3944,25 @@
         <v>10</v>
       </c>
       <c r="E22" s="1"/>
-      <c r="F22" s="116"/>
-      <c r="G22" s="116"/>
-      <c r="H22" s="116"/>
+      <c r="F22" s="107"/>
+      <c r="G22" s="107"/>
+      <c r="H22" s="107"/>
       <c r="I22" s="65"/>
     </row>
     <row r="23" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="65"/>
-      <c r="B23" s="114" t="s">
+      <c r="B23" s="104" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="115"/>
+      <c r="C23" s="105"/>
       <c r="D23" s="44" t="str">
         <f>IF(D26=TRUE,SUM(Irányelvek!L2:L48),"Még nincs adat.")</f>
         <v>Még nincs adat.</v>
       </c>
       <c r="E23" s="1"/>
-      <c r="F23" s="116"/>
-      <c r="G23" s="116"/>
-      <c r="H23" s="116"/>
+      <c r="F23" s="107"/>
+      <c r="G23" s="107"/>
+      <c r="H23" s="107"/>
       <c r="I23" s="65"/>
     </row>
     <row r="24" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -3961,9 +3976,9 @@
         <v>Még nincs adat.</v>
       </c>
       <c r="E24" s="1"/>
-      <c r="F24" s="116"/>
-      <c r="G24" s="116"/>
-      <c r="H24" s="116"/>
+      <c r="F24" s="107"/>
+      <c r="G24" s="107"/>
+      <c r="H24" s="107"/>
       <c r="I24" s="65"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
@@ -3979,10 +3994,10 @@
     </row>
     <row r="26" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="65"/>
-      <c r="B26" s="109" t="s">
+      <c r="B26" s="98" t="s">
         <v>51</v>
       </c>
-      <c r="C26" s="109"/>
+      <c r="C26" s="98"/>
       <c r="D26" s="45" t="b">
         <v>0</v>
       </c>
@@ -3994,10 +4009,10 @@
     </row>
     <row r="27" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="65"/>
-      <c r="B27" s="106" t="s">
+      <c r="B27" s="124" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="107"/>
+      <c r="C27" s="125"/>
       <c r="D27" s="45"/>
       <c r="E27" s="46"/>
       <c r="F27" s="46"/>
@@ -4007,10 +4022,10 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="65"/>
-      <c r="B28" s="98" t="s">
+      <c r="B28" s="118" t="s">
         <v>27</v>
       </c>
-      <c r="C28" s="98"/>
+      <c r="C28" s="118"/>
       <c r="D28" s="46"/>
       <c r="E28" s="46"/>
       <c r="F28" s="46"/>
@@ -4020,13 +4035,13 @@
     </row>
     <row r="29" spans="1:9" ht="105" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="65"/>
-      <c r="B29" s="108"/>
-      <c r="C29" s="108"/>
-      <c r="D29" s="108"/>
-      <c r="E29" s="108"/>
-      <c r="F29" s="108"/>
-      <c r="G29" s="108"/>
-      <c r="H29" s="108"/>
+      <c r="B29" s="97"/>
+      <c r="C29" s="97"/>
+      <c r="D29" s="97"/>
+      <c r="E29" s="97"/>
+      <c r="F29" s="97"/>
+      <c r="G29" s="97"/>
+      <c r="H29" s="97"/>
       <c r="I29" s="65"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
@@ -4043,17 +4058,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="Mz7EfEDe6v8cDUz4TxEHDWHiqsbUlOKtpPmMASCpJrCgqIKcchwB59qyedMGM9nhDxctmLUFNc/7+3pzDxMfOQ==" saltValue="ufiuVYYMa4lem5kpeJ7gNw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="27">
-    <mergeCell ref="B29:H29"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B6:H6"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="F21:H24"/>
-    <mergeCell ref="F17:H19"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="B12:C12"/>
@@ -4070,6 +4074,17 @@
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B29:H29"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B6:H6"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="F21:H24"/>
+    <mergeCell ref="F17:H19"/>
   </mergeCells>
   <conditionalFormatting sqref="D15">
     <cfRule type="expression" dxfId="5" priority="2" stopIfTrue="1">
@@ -4130,7 +4145,7 @@
   <sheetPr codeName="Munka2"/>
   <dimension ref="A1:N48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
     </sheetView>
